--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B5206F-2AD4-43C1-AF2B-C0A4657F3403}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BEA9E6-627D-49F6-A0BC-BD46823AF310}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADS" sheetId="1" r:id="rId1"/>
@@ -802,7 +802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9EADDC-B7C3-4DA1-ABDD-21E6149184D4}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1032,7 +1032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD0D8BA8-5E40-443E-AAEB-BCF917EB7239}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BEA9E6-627D-49F6-A0BC-BD46823AF310}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694EBE6E-7851-4BCC-B8F8-55C4B7B77D1B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADS" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="47">
   <si>
     <t>Name</t>
   </si>
@@ -802,7 +802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9EADDC-B7C3-4DA1-ABDD-21E6149184D4}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -847,9 +847,7 @@
       <c r="B3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
         <v>38</v>
       </c>
@@ -1032,7 +1030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD0D8BA8-5E40-443E-AAEB-BCF917EB7239}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694EBE6E-7851-4BCC-B8F8-55C4B7B77D1B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DC1524-8554-40EB-A5EF-0DF2566C61DA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADS" sheetId="1" r:id="rId1"/>
@@ -54,9 +54,6 @@
     <t>Powershell(y/n)</t>
   </si>
   <si>
-    <t>ntuttle</t>
-  </si>
-  <si>
     <t>the purpose of...</t>
   </si>
   <si>
@@ -69,18 +66,12 @@
     <t>PKI_CA script collects data for Certification Server role of ADCS. It is batch script. Please note that it will collect only CA servier side data for this single role and that it is highly recommended to run Authentication data collection script in parallel</t>
   </si>
   <si>
-    <t>milanmil</t>
-  </si>
-  <si>
     <t>PKI_CEP_CES</t>
   </si>
   <si>
     <t>PKI_CEP_CES script collects data for CEP (Certificate Enrollment Policy) and CES (Certificate Enrollment Services) roles (together aka WES/Web Enrollment Services) of ADCS. It is batch script. Please note that it will collect only CEP/CES server side data for those two roles and that it is highly recommended to run Authentication data collection script in parallel.</t>
   </si>
   <si>
-    <t>tolui</t>
-  </si>
-  <si>
     <t>certquery.dll</t>
   </si>
   <si>
@@ -99,9 +90,6 @@
     <t>PKI_Scard script collects Smartcard Subsystem relevant data. It includes components that run as part of the client app that uses smartcard certificate and smartcard resource manager service. It is batch script. Please note that it will collect only cient side data related to Windows smartcard subsystem.</t>
   </si>
   <si>
-    <t>mnicolae</t>
-  </si>
-  <si>
     <t>PKI_Credential_Roaming</t>
   </si>
   <si>
@@ -112,9 +100,6 @@
   </si>
   <si>
     <t>AD_PERF</t>
-  </si>
-  <si>
-    <t>waynmc</t>
   </si>
   <si>
     <t xml:space="preserve">AD Perf Data Collection Tool is powershell script for tracing several scenarios: 
@@ -127,13 +112,7 @@
 7: Long Term Baseline performance of a Domain Controller; </t>
   </si>
   <si>
-    <t>boussom; tolui</t>
-  </si>
-  <si>
     <t>PKI_EFS</t>
-  </si>
-  <si>
-    <t>mnicolae; milanmil</t>
   </si>
   <si>
     <t>EFS data collection script should be used for EFS encryptio/decryption problems. The script will collect EFS releavnt ETL traces, procmon logs and psr recording of the problem repro steps. Tracing time should be minimzied, otherwise procmon logs will get very large. In additoin to EFS data collection scripts please collect Authentication data collection script. In addition to that get the "cipher /c path_of_the_file_in_repro"</t>
@@ -185,6 +164,27 @@
 - TSS ensures consistent data sets with timestamps in log file and PSR
 - automatic stop trigger when investigating intermittent issues (no repro at will)
 The More Information section is included in the current version of the word doc contained in tss_tools_v1.*.zip and tss_tools_ttt_v1.*.zip</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>Milan</t>
+  </si>
+  <si>
+    <t>Tolu</t>
+  </si>
+  <si>
+    <t>Bousso; Tolu</t>
+  </si>
+  <si>
+    <t>Marius</t>
+  </si>
+  <si>
+    <t>Marius; Milan</t>
+  </si>
+  <si>
+    <t>Wayne</t>
   </si>
 </sst>
 </file>
@@ -581,20 +581,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.88671875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -623,173 +623,173 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="E2">
         <v>9</v>
       </c>
       <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="C3" s="6" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E3">
         <v>3</v>
       </c>
       <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
         <v>10</v>
       </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
       <c r="I3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="E4">
         <v>4</v>
       </c>
       <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
         <v>10</v>
       </c>
-      <c r="G4" t="s">
+    </row>
+    <row r="5" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="C5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="11" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="6" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -802,19 +802,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9EADDC-B7C3-4DA1-ABDD-21E6149184D4}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.5546875" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -828,28 +828,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="374.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -866,9 +866,9 @@
       <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -882,30 +882,30 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -922,9 +922,9 @@
       <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -938,30 +938,30 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -978,9 +978,9 @@
       <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -994,30 +994,30 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1034,9 +1034,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1050,30 +1050,30 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DC1524-8554-40EB-A5EF-0DF2566C61DA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="ADS" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="57">
   <si>
     <t>Name</t>
   </si>
@@ -186,11 +185,41 @@
   <si>
     <t>Wayne</t>
   </si>
+  <si>
+    <t>DownloadPath</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/ADS/AUTH/AUTH.zip?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/ADS/PKI_CA/PKI_CA.zip?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/ADS/PKI_CEP_CES/PKI_CEP_CES.zip?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/ADS/PKI_CertificateEnrollment_Client/PKI_CertificateEnrollment_Client.zip?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/ADS/PKI_Scard/PKI_Scard.zip?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/ADS/PKI_Credential_Roaming/PKI_Credential_Roaming.zip?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/ADS/PKI_EFS/PKI_EFS.zip?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/ADS/AD_PERF/AD_PERF.zip?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/ADS/IDNA_LSASS/IDNA_LSASS.zip?raw=true</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -227,7 +256,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -263,11 +292,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -299,9 +339,10 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -578,23 +619,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.85546875" style="5" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="64.7109375" customWidth="1"/>
+    <col min="6" max="10" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -607,23 +649,26 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>36</v>
       </c>
@@ -634,20 +679,23 @@
       <c r="D2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
       </c>
       <c r="I2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -660,20 +708,23 @@
       <c r="D3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>9</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
       </c>
       <c r="I3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -686,23 +737,26 @@
       <c r="D4" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4">
         <v>4</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>9</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>15</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>16</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
@@ -715,11 +769,14 @@
       <c r="D5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
@@ -732,11 +789,14 @@
       <c r="D6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
@@ -747,11 +807,14 @@
       <c r="D7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>26</v>
       </c>
@@ -764,8 +827,11 @@
       <c r="D8" s="7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="E8" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>24</v>
       </c>
@@ -776,11 +842,14 @@
       <c r="D9" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>28</v>
       </c>
@@ -790,6 +859,9 @@
       <c r="C10" s="12"/>
       <c r="D10" s="6" t="s">
         <v>41</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -799,14 +871,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9EADDC-B7C3-4DA1-ABDD-21E6149184D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64.5703125" customWidth="1"/>
@@ -859,14 +931,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{381D1E61-9FF0-4868-99D7-300BAF3ADFF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -915,14 +987,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D8341B9-54F8-4829-B514-896B1E7C77A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -971,14 +1043,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C6B2AAF-6D7F-49FF-BB60-90A2E671E2D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1027,14 +1099,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD0D8BA8-5E40-443E-AAEB-BCF917EB7239}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832ED52E-4980-4944-8810-1A356AB12D45}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADS" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="67">
   <si>
     <t>Name</t>
   </si>
@@ -215,12 +216,42 @@
   <si>
     <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/ADS/IDNA_LSASS/IDNA_LSASS.zip?raw=true</t>
   </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/NET/TSS/TSS.zip?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/NET/Package2/Package2.zip?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/SHA/Package2/Package2.zip?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/SHA/Package1/Package1.zip?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/PRF/Package1/Package1.zip?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/PRF/Package2/Package2.zip?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/Package1/Package1.zip?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/Package2/Package2.zip?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/DND/Package1/Package1.zip?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/DND/Package2/Package2.zip?raw=true</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +262,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -304,10 +343,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -328,21 +368,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -619,14 +656,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.85546875" style="5" customWidth="1"/>
@@ -649,7 +686,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="10" t="s">
         <v>47</v>
       </c>
       <c r="F1" t="s">
@@ -832,14 +869,14 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="9" t="s">
         <v>46</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -850,13 +887,13 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="8"/>
       <c r="D10" s="6" t="s">
         <v>41</v>
       </c>
@@ -871,22 +908,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E1" sqref="E1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64.5703125" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -899,8 +937,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="E1" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>38</v>
       </c>
@@ -911,8 +952,11 @@
       <c r="D2" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>34</v>
       </c>
@@ -923,24 +967,34 @@
       <c r="D3" s="6" t="s">
         <v>31</v>
       </c>
+      <c r="E3" s="11" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{B10D17A6-34C6-4FCC-8346-867F7CE569D7}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{AAB4F570-B4B1-41CC-9004-801156E8F2F0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D3"/>
+      <selection activeCell="E1" sqref="E1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="68.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -953,8 +1007,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E1" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>33</v>
       </c>
@@ -965,8 +1022,11 @@
       <c r="D2" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E2" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>34</v>
       </c>
@@ -979,24 +1039,34 @@
       <c r="D3" s="6" t="s">
         <v>31</v>
       </c>
+      <c r="E3" s="11" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{32BC7776-8748-42CB-8431-F4F6F9870FE5}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{0602D510-8024-41AE-96CA-A63A280E6E95}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D3"/>
+      <selection activeCell="E1" sqref="E1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="41.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1009,8 +1079,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E1" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>33</v>
       </c>
@@ -1021,8 +1094,11 @@
       <c r="D2" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E2" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>34</v>
       </c>
@@ -1035,24 +1111,34 @@
       <c r="D3" s="6" t="s">
         <v>31</v>
       </c>
+      <c r="E3" s="11" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{3A7178BE-4550-4B62-87DD-DAC61CCC6919}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{BC17F1E9-0552-4A08-8A4C-FC801179B5B6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1065,8 +1151,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E1" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>33</v>
       </c>
@@ -1077,8 +1166,11 @@
       <c r="D2" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E2" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>34</v>
       </c>
@@ -1091,24 +1183,34 @@
       <c r="D3" s="6" t="s">
         <v>31</v>
       </c>
+      <c r="E3" s="11" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{B7671B97-016E-46E5-8BCB-DE6E3C906307}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{4C8436B7-3A71-4E72-B6B6-B726F44D8E5C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1121,8 +1223,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E1" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>33</v>
       </c>
@@ -1133,8 +1238,11 @@
       <c r="D2" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E2" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>34</v>
       </c>
@@ -1147,9 +1255,16 @@
       <c r="D3" s="6" t="s">
         <v>31</v>
       </c>
+      <c r="E3" s="11" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{E32945D2-9524-4AC1-BFEB-66851322F22B}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{B426CE3C-7D07-428A-8D0B-2FA2666AEAB6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832ED52E-4980-4944-8810-1A356AB12D45}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40717042-4B77-4D65-A35D-6493596FD000}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="70">
   <si>
     <t>Name</t>
   </si>
@@ -245,6 +245,15 @@
   </si>
   <si>
     <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/DND/Package2/Package2.zip?raw=true</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Data Collection</t>
+  </si>
+  <si>
+    <t>Data Collection, Analysis and Troubleshooting​</t>
   </si>
 </sst>
 </file>
@@ -657,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E3"/>
+      <selection activeCell="F1" sqref="F1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,11 +678,11 @@
     <col min="2" max="2" width="55.85546875" style="5" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="64.7109375" customWidth="1"/>
-    <col min="6" max="10" width="25.5703125" customWidth="1"/>
+    <col min="5" max="6" width="64.7109375" customWidth="1"/>
+    <col min="7" max="11" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -689,23 +698,26 @@
       <c r="E1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>36</v>
       </c>
@@ -719,20 +731,23 @@
       <c r="E2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>9</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
       </c>
       <c r="J2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -745,23 +760,26 @@
       <c r="D3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3">
         <v>3</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>9</v>
-      </c>
-      <c r="I3" t="s">
-        <v>10</v>
       </c>
       <c r="J3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -777,23 +795,26 @@
       <c r="E4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4">
         <v>4</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>9</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>15</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>16</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
@@ -809,11 +830,14 @@
       <c r="E5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
@@ -829,11 +853,14 @@
       <c r="E6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
@@ -847,11 +874,14 @@
       <c r="E7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>26</v>
       </c>
@@ -867,8 +897,11 @@
       <c r="E8" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="F8" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>24</v>
       </c>
@@ -882,11 +915,14 @@
       <c r="E9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>28</v>
       </c>
@@ -900,19 +936,25 @@
       <c r="E10" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="F10" s="3" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{653FAF78-8FC0-4BFE-9276-32B165C1199A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E3"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,7 +966,7 @@
     <col min="5" max="5" width="37.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -940,8 +982,11 @@
       <c r="E1" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="F1" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>38</v>
       </c>
@@ -955,8 +1000,11 @@
       <c r="E2" s="11" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F2" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>34</v>
       </c>
@@ -969,6 +1017,9 @@
       </c>
       <c r="E3" s="11" t="s">
         <v>58</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -983,10 +1034,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E3"/>
+      <selection activeCell="F1" sqref="F1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -994,7 +1045,7 @@
     <col min="5" max="5" width="68.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1010,8 +1061,11 @@
       <c r="E1" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F1" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>33</v>
       </c>
@@ -1025,8 +1079,11 @@
       <c r="E2" s="11" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F2" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>34</v>
       </c>
@@ -1041,6 +1098,9 @@
       </c>
       <c r="E3" s="11" t="s">
         <v>59</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1055,10 +1115,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E3"/>
+      <selection activeCell="F1" sqref="F1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1066,7 +1126,7 @@
     <col min="5" max="5" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1082,8 +1142,11 @@
       <c r="E1" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F1" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>33</v>
       </c>
@@ -1097,8 +1160,11 @@
       <c r="E2" s="11" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F2" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>34</v>
       </c>
@@ -1113,6 +1179,9 @@
       </c>
       <c r="E3" s="11" t="s">
         <v>62</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1127,10 +1196,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F1" sqref="F1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1138,7 +1207,7 @@
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1154,8 +1223,11 @@
       <c r="E1" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="F1" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>33</v>
       </c>
@@ -1169,8 +1241,11 @@
       <c r="E2" s="11" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="F2" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>34</v>
       </c>
@@ -1185,6 +1260,9 @@
       </c>
       <c r="E3" s="11" t="s">
         <v>64</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1199,10 +1277,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1210,7 +1288,7 @@
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1226,8 +1304,11 @@
       <c r="E1" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="F1" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>33</v>
       </c>
@@ -1241,8 +1322,11 @@
       <c r="E2" s="11" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="F2" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>34</v>
       </c>
@@ -1257,6 +1341,9 @@
       </c>
       <c r="E3" s="11" t="s">
         <v>66</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40717042-4B77-4D65-A35D-6493596FD000}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF16EB7-E492-4B36-823C-0288C900D1F3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADS" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="PRF" sheetId="4" r:id="rId4"/>
     <sheet name="UEX" sheetId="5" r:id="rId5"/>
     <sheet name="DND" sheetId="6" r:id="rId6"/>
+    <sheet name="ALL" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="70">
   <si>
     <t>Name</t>
   </si>
@@ -954,7 +955,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1279,7 +1280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -1354,4 +1355,60 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{983E2057-1775-4393-84BC-A7ADC9F75FE4}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{38E2A884-C753-43EA-913C-7B5ED1699EA9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF16EB7-E492-4B36-823C-0288C900D1F3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ADS" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="74">
   <si>
     <t>Name</t>
   </si>
@@ -224,12 +223,6 @@
     <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/NET/Package2/Package2.zip?raw=true</t>
   </si>
   <si>
-    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/SHA/Package2/Package2.zip?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/SHA/Package1/Package1.zip?raw=true</t>
-  </si>
-  <si>
     <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/PRF/Package1/Package1.zip?raw=true</t>
   </si>
   <si>
@@ -255,12 +248,33 @@
   </si>
   <si>
     <t>Data Collection, Analysis and Troubleshooting​</t>
+  </si>
+  <si>
+    <t>ChaseEvents</t>
+  </si>
+  <si>
+    <t>MergeEvents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MergeEvents is a tool to merge all the events stored in a folder in one single evtx file. It provides a global view of all the event logs. Instead of loading all one by one, spending time jumping from one event to another, then unloading them one by one:
+- First install the tool by running the installer
+- Then just right-click on a folder and select “Merge events inside this folder”
+</t>
+  </si>
+  <si>
+    <t>sergeg</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/SHA/ChaseEvents/ChaseEvents.zip?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/SHA/MergeEvents/MergeEvents.zip?raw=true</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -357,7 +371,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -386,10 +400,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -666,14 +683,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.85546875" style="5" customWidth="1"/>
@@ -700,7 +717,7 @@
         <v>47</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -733,7 +750,7 @@
         <v>48</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G2">
         <v>9</v>
@@ -765,7 +782,7 @@
         <v>49</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -797,7 +814,7 @@
         <v>50</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -832,7 +849,7 @@
         <v>51</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -855,7 +872,7 @@
         <v>52</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -876,7 +893,7 @@
         <v>53</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -899,7 +916,7 @@
         <v>54</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="135" x14ac:dyDescent="0.25">
@@ -917,7 +934,7 @@
         <v>55</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -938,12 +955,12 @@
         <v>56</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{653FAF78-8FC0-4BFE-9276-32B165C1199A}"/>
+    <hyperlink ref="E3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -951,14 +968,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64.5703125" customWidth="1"/>
@@ -984,7 +1001,7 @@
         <v>47</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -1002,7 +1019,7 @@
         <v>57</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1020,13 +1037,13 @@
         <v>58</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{B10D17A6-34C6-4FCC-8346-867F7CE569D7}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{AAB4F570-B4B1-41CC-9004-801156E8F2F0}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
@@ -1034,15 +1051,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F3"/>
+      <selection activeCell="A2" sqref="A2:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="42.42578125" customWidth="1"/>
     <col min="5" max="5" width="68.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1063,30 +1082,30 @@
         <v>47</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
-        <v>32</v>
+      <c r="D2" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>35</v>
@@ -1095,19 +1114,19 @@
         <v>33</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{32BC7776-8748-42CB-8431-F4F6F9870FE5}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{0602D510-8024-41AE-96CA-A63A280E6E95}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
@@ -1115,14 +1134,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="41.140625" customWidth="1"/>
   </cols>
@@ -1144,7 +1163,7 @@
         <v>47</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1159,10 +1178,10 @@
         <v>32</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1179,16 +1198,16 @@
         <v>31</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{3A7178BE-4550-4B62-87DD-DAC61CCC6919}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{BC17F1E9-0552-4A08-8A4C-FC801179B5B6}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
@@ -1196,14 +1215,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
@@ -1225,7 +1244,7 @@
         <v>47</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -1240,10 +1259,10 @@
         <v>32</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -1260,16 +1279,16 @@
         <v>31</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{B7671B97-016E-46E5-8BCB-DE6E3C906307}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{4C8436B7-3A71-4E72-B6B6-B726F44D8E5C}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
@@ -1277,14 +1296,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
@@ -1306,7 +1325,7 @@
         <v>47</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -1321,10 +1340,10 @@
         <v>32</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -1341,16 +1360,16 @@
         <v>31</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{E32945D2-9524-4AC1-BFEB-66851322F22B}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{B426CE3C-7D07-428A-8D0B-2FA2666AEAB6}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
@@ -1358,14 +1377,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{983E2057-1775-4393-84BC-A7ADC9F75FE4}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="65.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1384,7 +1408,7 @@
         <v>47</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -1402,12 +1426,52 @@
         <v>57</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>68</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{38E2A884-C753-43EA-913C-7B5ED1699EA9}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="79">
   <si>
     <t>Name</t>
   </si>
@@ -220,9 +220,6 @@
     <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/NET/TSS/TSS.zip?raw=true</t>
   </si>
   <si>
-    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/NET/Package2/Package2.zip?raw=true</t>
-  </si>
-  <si>
     <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/PRF/Package1/Package1.zip?raw=true</t>
   </si>
   <si>
@@ -269,6 +266,43 @@
   </si>
   <si>
     <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/SHA/MergeEvents/MergeEvents.zip?raw=true</t>
+  </si>
+  <si>
+    <t>CheckPCI</t>
+  </si>
+  <si>
+    <t>CheckPCI is proactive and recative PS script for 'Ghosted NIC / Static IP Removal'  or 'NIC driver Removal' issues
+Purpose...the CheckPCI.ps1 script can
+1. Re-assign IPv4 static IP address if it might be lost after reboot, using Task Scheduler 
+2. Test for missing OEM INF files for network adapters 
+3. Collect PNP PCI SetApi logs; Prereq: Start-Collection.ps1</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/NET/CheckPCI/CheckPCI.zip?raw=true</t>
+  </si>
+  <si>
+    <t>psSDP</t>
+  </si>
+  <si>
+    <t>psSDP is PowerShell based SDP (Support Diagnostic Package) as an alternative to traditional Microsoft **Support Diagnostic Packages**
+Purpose
+Collect **SDP** speciality report on Microsoft Windows systems
+Usage
+To start data collection, run in an elevated PowerShell window
+ ` .\get-psSDP.ps1 [Net|Dom|CTS|Print|HyperV|Setup|Cluster|Perf|SQLbase|Mini|Nano] `
+ Example for SDP Networking Diagnostic:  
+  `.\get-psSDP.ps1 Net`
+ Example for SDP Basic (mini) data collection: 
+ `.\get-psSDP.ps1 Mini`
+  Example for SDP Net without zipping results:
+  `.\get-psSDP.ps1 Net NoCab`
+Purpose...the CheckPCI.ps1 script can
+1. Re-assign IPv4 static IP address if it might be lost after reboot, using Task Scheduler 
+2. Test for missing OEM INF files for network adapters 
+3. Collect PNP PCI SetApi logs; Prereq: Start-Collection.ps1</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/NET/psSDP/psSDP.zip?raw=true</t>
   </si>
 </sst>
 </file>
@@ -717,7 +751,7 @@
         <v>47</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -750,7 +784,7 @@
         <v>48</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G2">
         <v>9</v>
@@ -782,7 +816,7 @@
         <v>49</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -814,7 +848,7 @@
         <v>50</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -849,7 +883,7 @@
         <v>51</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -872,7 +906,7 @@
         <v>52</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -893,7 +927,7 @@
         <v>53</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -916,7 +950,7 @@
         <v>54</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="135" x14ac:dyDescent="0.25">
@@ -934,7 +968,7 @@
         <v>55</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -955,7 +989,7 @@
         <v>56</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -969,10 +1003,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,7 +1035,7 @@
         <v>47</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -1019,34 +1053,53 @@
         <v>57</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="300" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
     <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -1082,30 +1135,30 @@
         <v>47</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>72</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>35</v>
@@ -1114,13 +1167,13 @@
         <v>33</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1163,7 +1216,7 @@
         <v>47</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1178,10 +1231,10 @@
         <v>32</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1198,10 +1251,10 @@
         <v>31</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1244,7 +1297,7 @@
         <v>47</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -1259,10 +1312,10 @@
         <v>32</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -1279,10 +1332,10 @@
         <v>31</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1325,7 +1378,7 @@
         <v>47</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -1340,10 +1393,10 @@
         <v>32</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -1360,10 +1413,10 @@
         <v>31</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1378,10 +1431,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1408,7 +1461,7 @@
         <v>47</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -1426,30 +1479,30 @@
         <v>57</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>72</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>35</v>
@@ -1458,13 +1511,31 @@
         <v>33</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="300" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1472,6 +1543,7 @@
     <hyperlink ref="E2" r:id="rId1"/>
     <hyperlink ref="E3" r:id="rId2"/>
     <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="81">
   <si>
     <t>Name</t>
   </si>
@@ -303,6 +303,13 @@
   </si>
   <si>
     <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/NET/psSDP/psSDP.zip?raw=true</t>
+  </si>
+  <si>
+    <t>The purpose of this tool is following...when you collect several event logs from a server and you don't know yet what to look for, and can be tedious to load all of them in your event logs and explorer each of them by going from to the other.
+To get quicker and avoiding loading several event logs and (and being obliged to unload them one by one) you can merge them all in one single evtx file.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The purpose of this tool is following...when you collect several event logs from a server and you don't know yet what to look for, and can be tedious to load all of </t>
   </si>
 </sst>
 </file>
@@ -720,7 +727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F3"/>
     </sheetView>
   </sheetViews>
@@ -1108,7 +1115,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1156,16 +1163,14 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>68</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>33</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
         <v>70</v>
       </c>
@@ -1434,7 +1439,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1505,11 +1510,9 @@
         <v>68</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>33</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
         <v>70</v>
       </c>

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ADS" sheetId="1" r:id="rId1"/>
@@ -220,9 +220,6 @@
     <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/NET/TSS/TSS.zip?raw=true</t>
   </si>
   <si>
-    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/PRF/Package1/Package1.zip?raw=true</t>
-  </si>
-  <si>
     <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/PRF/Package2/Package2.zip?raw=true</t>
   </si>
   <si>
@@ -310,6 +307,9 @@
   </si>
   <si>
     <t xml:space="preserve">The purpose of this tool is following...when you collect several event logs from a server and you don't know yet what to look for, and can be tedious to load all of </t>
+  </si>
+  <si>
+    <t>\\dummymachine\dummyinternalshare\Package1.zip</t>
   </si>
 </sst>
 </file>
@@ -728,7 +728,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F3"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,7 +758,7 @@
         <v>47</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -791,7 +791,7 @@
         <v>48</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G2">
         <v>9</v>
@@ -823,7 +823,7 @@
         <v>49</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -855,7 +855,7 @@
         <v>50</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -890,7 +890,7 @@
         <v>51</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -913,7 +913,7 @@
         <v>52</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -934,7 +934,7 @@
         <v>53</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -957,7 +957,7 @@
         <v>54</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="135" x14ac:dyDescent="0.25">
@@ -975,7 +975,7 @@
         <v>55</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -996,7 +996,7 @@
         <v>56</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1042,7 +1042,7 @@
         <v>47</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -1060,43 +1060,43 @@
         <v>57</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="300" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1142,43 +1142,43 @@
         <v>47</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>71</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1195,13 +1195,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="41.140625" customWidth="1"/>
+    <col min="5" max="5" width="58" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1221,7 +1221,7 @@
         <v>47</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1236,10 +1236,10 @@
         <v>32</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1256,10 +1256,10 @@
         <v>31</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1302,7 +1302,7 @@
         <v>47</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -1317,10 +1317,10 @@
         <v>32</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -1337,10 +1337,10 @@
         <v>31</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1383,7 +1383,7 @@
         <v>47</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -1398,10 +1398,10 @@
         <v>32</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -1418,10 +1418,10 @@
         <v>31</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1438,8 +1438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1466,10 +1466,10 @@
         <v>47</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="405" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>38</v>
       </c>
@@ -1484,61 +1484,61 @@
         <v>57</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>71</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="300" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6612B698-50C3-4F54-9BFC-DD87C9FD9D92}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADS" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="91">
   <si>
     <t>Name</t>
   </si>
@@ -311,11 +312,75 @@
   <si>
     <t>\\dummymachine\dummyinternalshare\Package1.zip</t>
   </si>
+  <si>
+    <t>NetworkMonitor_Parsers_03_04_2978_x64</t>
+  </si>
+  <si>
+    <t>These are the latest MS Netmon Parsers, released after Windows 8, but newer than the default Parsers published with the Netmon 3.4 download.
+Package is provided as-is. Further updates are not expected. To uninstall them you need to uninstall Netmon and reinstall with defaults.
+Purpose
+Collect **SDP** speciality report on Microsoft Windows systems
+Usage
+To start data collection, run in an elevated PowerShell window
+ ` .\get-psSDP.ps1 [Net|Dom|CTS|Print|HyperV|Setup|Cluster|Perf|SQLbase|Mini|Nano] `
+ Example for SDP Networking Diagnostic:  
+  `.\get-psSDP.ps1 Net`
+ Example for SDP Basic (mini) data collection: 
+ `.\get-psSDP.ps1 Mini`
+  Example for SDP Net without zipping results:
+  `.\get-psSDP.ps1 Net NoCab`
+Purpose...the CheckPCI.ps1 script can
+1. Re-assign IPv4 static IP address if it might be lost after reboot, using Task Scheduler 
+2. Test for missing OEM INF files for network adapters 
+3. Collect PNP PCI SetApi logs; Prereq: Start-Collection.ps1</t>
+  </si>
+  <si>
+    <t>Roland W.</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/NET/NetworkMonitor_Parsers_03_04_2978_x64/NetworkMonitor_Parsers_03_04_2978_x64.zip?raw=true</t>
+  </si>
+  <si>
+    <t>offline-SDPcheck</t>
+  </si>
+  <si>
+    <t>RFLcheck is a set of Explorer Plugin and PowerShell scripts that enables engineers to identify missing Hotfixes in a customer supplied SDP report. Useful add-ons are
+checks for 3rd party drivers (Pstat),
+checks for incorrect or changed Registry settings,
+PerformanceMonitorAnalysis (PMA),
+Pstat-Compare,
+Event-summary up to 6h before SDP collection,
+check for specific Events,
+re-Arrange-SDPFolders (for Cluster)
+For details see MS internal KB3070416</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/NET/offline-SDPcheck/RFL.zip?raw=true</t>
+  </si>
+  <si>
+    <t>GetLogs</t>
+  </si>
+  <si>
+    <t>PowerShell based script set for collecting basic diag data from a Windows based computer.
+This script collects data from one or more computers, local or remote
+EXAMPLE data collection local
+`GetLogs.ps1`  # simply run it without any parameter to collect all data with defaults
+EXAMPLE data collection remote
+`GetLogs.ps1 -ComputerName` # run the script data collection on specific computer
+EXAMPLE data analysis
+To access the infos stored in xml files run in PowerShell window the following sample
+`$Inf= Import-CliXml -path "C:\MS_DATA\190221-121553\H16N1-GeneralInfoPerHost.xml"`
+`$Inf # lists all Members`
+`$Inf.Hotfix # Lists installed Hotfixes for example`</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/SHA/GetLogs/GetLogs.zip?raw=true</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -412,7 +477,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -444,10 +509,13 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -724,14 +792,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.85546875" style="5" customWidth="1"/>
@@ -1001,7 +1069,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1009,16 +1077,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64.5703125" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
@@ -1099,26 +1167,67 @@
         <v>64</v>
       </c>
     </row>
+    <row r="5" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="360" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="13"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{EC249A1C-DA9C-48DE-AFD7-E9468C318A08}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{B15ED5C1-C490-4BEA-BB39-9A8DFD01292D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
     <col min="2" max="2" width="42.42578125" customWidth="1"/>
@@ -1181,25 +1290,44 @@
         <v>64</v>
       </c>
     </row>
+    <row r="4" spans="1:6" ht="300" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{2923B62D-90B5-4C40-82D6-B001684FAC77}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="58" customWidth="1"/>
   </cols>
@@ -1264,8 +1392,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
@@ -1273,14 +1401,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
@@ -1345,8 +1473,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
@@ -1354,14 +1482,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
@@ -1426,8 +1554,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
@@ -1435,14 +1563,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="65.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.85546875" customWidth="1"/>
@@ -1543,11 +1671,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6612B698-50C3-4F54-9BFC-DD87C9FD9D92}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7269A102-4551-440C-A0C4-5DD055F68AB0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADS" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="91">
   <si>
     <t>Name</t>
   </si>
@@ -1080,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1224,7 +1224,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A4" sqref="A4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1564,10 +1564,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1669,14 +1669,52 @@
         <v>64</v>
       </c>
     </row>
+    <row r="6" spans="1:6" ht="360" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
     <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
     <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{B3CD9DA3-E411-4A48-8748-8886776B875A}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{4FD5A73C-71F2-4FEC-B77F-217F9A278DF7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId7"/>
 </worksheet>
 </file>
--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7269A102-4551-440C-A0C4-5DD055F68AB0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8251F33C-9911-4254-B4C6-7A925EB6EFB3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADS" sheetId="1" r:id="rId1"/>
@@ -1080,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:F6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1566,12 +1566,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="65.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.85546875" customWidth="1"/>
     <col min="6" max="6" width="30.5703125" customWidth="1"/>

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8251F33C-9911-4254-B4C6-7A925EB6EFB3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF58FAF1-CB56-4927-95EF-623D4EB1B74C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -477,7 +477,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -508,9 +508,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1078,10 +1075,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,9 +1199,6 @@
       <c r="F6" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ADS" sheetId="1" r:id="rId1"/>
@@ -217,9 +217,6 @@
     <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/ADS/IDNA_LSASS/IDNA_LSASS.zip?raw=true</t>
   </si>
   <si>
-    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/NET/TSS/TSS.zip?raw=true</t>
-  </si>
-  <si>
     <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/PRF/Package2/Package2.zip?raw=true</t>
   </si>
   <si>
@@ -299,9 +296,6 @@
 3. Collect PNP PCI SetApi logs; Prereq: Start-Collection.ps1</t>
   </si>
   <si>
-    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/NET/psSDP/psSDP.zip?raw=true</t>
-  </si>
-  <si>
     <t>The purpose of this tool is following...when you collect several event logs from a server and you don't know yet what to look for, and can be tedious to load all of them in your event logs and explorer each of them by going from to the other.
 To get quicker and avoiding loading several event logs and (and being obliged to unload them one by one) you can merge them all in one single evtx file.</t>
   </si>
@@ -310,6 +304,12 @@
   </si>
   <si>
     <t>\\dummymachine\dummyinternalshare\Package1.zip</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/NET/TSS/tss_tools_v1.80.06.zip?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/ALL/psSDP/psSDP-offline.zip?raw=true</t>
   </si>
 </sst>
 </file>
@@ -758,7 +758,7 @@
         <v>47</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -791,7 +791,7 @@
         <v>48</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G2">
         <v>9</v>
@@ -823,7 +823,7 @@
         <v>49</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -855,7 +855,7 @@
         <v>50</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -890,7 +890,7 @@
         <v>51</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -913,7 +913,7 @@
         <v>52</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -934,7 +934,7 @@
         <v>53</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -957,7 +957,7 @@
         <v>54</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="135" x14ac:dyDescent="0.25">
@@ -975,7 +975,7 @@
         <v>55</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -996,7 +996,7 @@
         <v>56</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1012,8 +1012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F4"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1042,7 +1042,7 @@
         <v>47</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
@@ -1057,46 +1057,46 @@
         <v>37</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="300" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1142,43 +1142,43 @@
         <v>47</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>70</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1195,7 +1195,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -1221,7 +1221,7 @@
         <v>47</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1236,10 +1236,10 @@
         <v>32</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1256,10 +1256,10 @@
         <v>31</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1302,7 +1302,7 @@
         <v>47</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -1317,10 +1317,10 @@
         <v>32</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -1337,10 +1337,10 @@
         <v>31</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1383,7 +1383,7 @@
         <v>47</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -1398,10 +1398,10 @@
         <v>32</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -1418,10 +1418,10 @@
         <v>31</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1438,8 +1438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1466,7 +1466,7 @@
         <v>47</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="405" x14ac:dyDescent="0.25">
@@ -1481,64 +1481,64 @@
         <v>37</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>70</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="300" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
   </bookViews>
   <sheets>
     <sheet name="ADS" sheetId="1" r:id="rId1"/>
@@ -81,9 +81,6 @@
     <t>PKI_CertificateEnrollment_Client</t>
   </si>
   <si>
-    <t>PKI_CertificateEnrollment_Client script collects client specific certificate enrollment data. It is batch script. Please note that it will collect only cient side data and that it is highly recommended to run Authentication data collection script in parallel</t>
-  </si>
-  <si>
     <t>PKI_Scard</t>
   </si>
   <si>
@@ -310,6 +307,9 @@
   </si>
   <si>
     <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/ALL/psSDP/psSDP-offline.zip?raw=true</t>
+  </si>
+  <si>
+    <t>PKI_CertificateEnrollment_Client script collects client specific certificate enrollment data. It is batch script.  Please note that it will collect only cient side data and that it is highly recommended to run Authentication data collection script in parallel</t>
   </si>
 </sst>
 </file>
@@ -727,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,10 +755,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -778,20 +778,20 @@
     </row>
     <row r="2" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G2">
         <v>9</v>
@@ -814,16 +814,16 @@
         <v>12</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -846,16 +846,16 @@
         <v>14</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -878,19 +878,19 @@
         <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -898,22 +898,22 @@
     </row>
     <row r="6" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="C6" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -921,20 +921,20 @@
     </row>
     <row r="7" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -942,40 +942,40 @@
     </row>
     <row r="8" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="C8" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -983,20 +983,20 @@
     </row>
     <row r="10" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1012,7 +1012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -1039,64 +1039,64 @@
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="300" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1139,46 +1139,46 @@
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>69</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1218,48 +1218,48 @@
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="C3" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1299,48 +1299,48 @@
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="C3" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1380,48 +1380,48 @@
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="C3" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1438,8 +1438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1463,82 +1463,82 @@
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="405" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>69</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="300" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99AC93C-08CA-4347-95F5-1F5F75A3E583}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
+    <workbookView xWindow="2640" yWindow="1305" windowWidth="21600" windowHeight="14640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADS" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="84">
   <si>
     <t>Name</t>
   </si>
@@ -311,11 +312,36 @@
   <si>
     <t>PKI_CertificateEnrollment_Client script collects client specific certificate enrollment data. It is batch script.  Please note that it will collect only cient side data and that it is highly recommended to run Authentication data collection script in parallel</t>
   </si>
+  <si>
+    <t>Hyper-V_Tracing_Using_Channels</t>
+  </si>
+  <si>
+    <t>This script uses the event channels to trace the Hyper-V activity. It can be usefull when a scenario is too long to fit in the VMLTrace buffer
+How it works
+This script will do these actions (by default)
+Sets registry keys for verbose tracing and restart VMMS
+Enables the channels according to the OS version (RS1, RS5) and sets their size to 50 MB
+Waits for key pressed
+Stops &amp; Exports the channels
+Evenutally adds the Hyper-V configuration, ClusDB &amp; Cluster logs
+Compresses everything in a .zip file
+Resets the registry keys to default and restart VMMS
+How to use it
+Run this command as administrator to collect to start the , reproduce the problem and press any key to complete the collection.
+.\Hyper-V_Tracing_Using_Channels.ps1
+To add some configurations use:
+-HVConfig: To dump the hyper-v configuration
+-FCConfig: To dump the cluster hive
+... other in the Get-help</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/SHA/Hyper-V_Tracing_Using_Channels/Hyper-V_Tracing_Using_Channels.zip?raw=true</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -446,8 +472,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -724,24 +750,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="6" width="64.7109375" customWidth="1"/>
-    <col min="7" max="11" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.88671875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1"/>
+    <col min="5" max="6" width="64.6640625" customWidth="1"/>
+    <col min="7" max="11" width="25.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -776,7 +802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>35</v>
       </c>
@@ -806,7 +832,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -838,7 +864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -873,7 +899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
@@ -896,7 +922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>18</v>
       </c>
@@ -919,7 +945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>20</v>
       </c>
@@ -940,7 +966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>25</v>
       </c>
@@ -960,7 +986,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>23</v>
       </c>
@@ -981,7 +1007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>27</v>
       </c>
@@ -1001,7 +1027,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1009,23 +1035,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1045,7 +1071,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>37</v>
       </c>
@@ -1063,7 +1089,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>70</v>
       </c>
@@ -1081,7 +1107,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="300" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>73</v>
       </c>
@@ -1101,9 +1127,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
@@ -1111,21 +1137,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="2" width="42.42578125" customWidth="1"/>
-    <col min="5" max="5" width="68.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" customWidth="1"/>
+    <col min="2" max="2" width="42.44140625" customWidth="1"/>
+    <col min="5" max="5" width="68.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1145,7 +1171,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="144" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>64</v>
       </c>
@@ -1163,7 +1189,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>65</v>
       </c>
@@ -1181,30 +1207,49 @@
         <v>62</v>
       </c>
     </row>
+    <row r="4" spans="1:6" ht="360" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{62A225A7-437A-4E44-9F0F-485634462A16}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1224,7 +1269,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>32</v>
       </c>
@@ -1242,7 +1287,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>33</v>
       </c>
@@ -1264,8 +1309,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
@@ -1273,19 +1318,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1305,7 +1350,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>32</v>
       </c>
@@ -1323,7 +1368,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>33</v>
       </c>
@@ -1345,8 +1390,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
@@ -1354,19 +1399,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1386,7 +1431,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>32</v>
       </c>
@@ -1404,7 +1449,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>33</v>
       </c>
@@ -1426,8 +1471,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
@@ -1435,21 +1480,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="65.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" customWidth="1"/>
+    <col min="2" max="2" width="65.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.88671875" customWidth="1"/>
+    <col min="6" max="6" width="30.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1469,7 +1514,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="405" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>37</v>
       </c>
@@ -1487,7 +1532,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>64</v>
       </c>
@@ -1505,7 +1550,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>65</v>
       </c>
@@ -1523,7 +1568,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="300" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>73</v>
       </c>
@@ -1543,10 +1588,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99AC93C-08CA-4347-95F5-1F5F75A3E583}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5976AE-DE5A-4453-B322-48CFCB1EA5A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1305" windowWidth="21600" windowHeight="14640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1455" yWindow="1380" windowWidth="27120" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADS" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="87">
   <si>
     <t>Name</t>
   </si>
@@ -336,6 +336,21 @@
   </si>
   <si>
     <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/SHA/Hyper-V_Tracing_Using_Channels/Hyper-V_Tracing_Using_Channels.zip?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/ADS/PKI_Credential_Roaming_Util/CRUtil.zip?raw=true</t>
+  </si>
+  <si>
+    <t>Credential Roaming Utility (crutil) is tool for extracting the credential roaming relevant data from the AD user account, troubleshooting credential roaming issues and AD database size root cause analysis.
+The tool must be executed in the security context of the account that has read rights for AD user account of the user whose credential roaming AD data needs to be investigated. After specifying username and domainname (and optionally domain controller) and clicking "Get Credential Roaming AD User Data" button in the UI, the tool will generate CredRoamLogs folder (in the same folder where app binary is placed) and collect four csv files:
+UserCredRoamADObjData.csv with user's AD object relevant info: User_Name, User_Email_Addresses, User_Distinguisehd_Name, MsPKITimeCreationDate, MsPKITimeModifiedDate and PwdLastSetDateTime
+UserCredRoamADAttrData.csv with user's AD credential roaming attributes relevant info (please note that this information is stored as BLOB in AD): DIMS_Roaming_Status, Token_Type, Token_ID, Token_Size, Last_Roamed, Key_Info, Cert_Subject, Cert_Issuer and Cert_Template (Cert_Subject, Cert_Issuer, Cert_Template will be set to "not applicable" if the inspected BLOB value is not certificate)
+UserCredRoamLVRAttrData.csv with user's AD object relevant info: User_Name, User_Email_Addresses, User_Distinguisehd_Name, Version, Time_LastOrigChange, USN_Local_Change, USN_Originating_Change
+UserCredRoamLVRObjData.csv with user's AD credential roaming attributes relevant infos (please note that this information is stored as BLOB in AD): DIMS_Roaming_Status, Token_Type, Token_ID, Token_Size, Last_Roamed, Key_Info, Cert_Subject, Cert_Issuer, Cert_Template (Cert_Subject, Cert_Issuer, Cert_Template will be set to "not applicable" if the inspected BLOB value is not certificate)
+For more information about credential roaming technology, please refer to: https://social.technet.microsoft.com/wiki/contents/articles/11483.windows-credential-roaming.aspx https://blogs.technet.microsoft.com/askds/2009/01/06/certs-on-wheels-understanding-credential-roaming/</t>
+  </si>
+  <si>
+    <t>PKI_Credential_Roaming_Util</t>
   </si>
 </sst>
 </file>
@@ -751,23 +766,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.88671875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" customWidth="1"/>
-    <col min="5" max="6" width="64.6640625" customWidth="1"/>
-    <col min="7" max="11" width="25.5546875" customWidth="1"/>
+    <col min="1" max="1" width="59.28515625" customWidth="1"/>
+    <col min="2" max="2" width="55.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="6" width="64.7109375" customWidth="1"/>
+    <col min="7" max="11" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -802,7 +817,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>35</v>
       </c>
@@ -832,7 +847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -864,7 +879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -899,7 +914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
@@ -922,7 +937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>18</v>
       </c>
@@ -945,7 +960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>20</v>
       </c>
@@ -966,71 +981,90 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="F9" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="6" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>62</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E8" r:id="rId2" xr:uid="{7C9D4DF6-0513-4A75-B449-1C2C8F2F8709}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1042,16 +1076,16 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.5546875" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.88671875" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1071,7 +1105,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="374.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>37</v>
       </c>
@@ -1089,7 +1123,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>70</v>
       </c>
@@ -1107,7 +1141,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="300" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>73</v>
       </c>
@@ -1140,18 +1174,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" customWidth="1"/>
-    <col min="2" max="2" width="42.44140625" customWidth="1"/>
-    <col min="5" max="5" width="68.88671875" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="42.42578125" customWidth="1"/>
+    <col min="5" max="5" width="68.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1171,7 +1205,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="144" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>64</v>
       </c>
@@ -1189,7 +1223,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>65</v>
       </c>
@@ -1207,7 +1241,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="360" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="405" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>81</v>
       </c>
@@ -1244,12 +1278,12 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1269,7 +1303,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>32</v>
       </c>
@@ -1287,7 +1321,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>33</v>
       </c>
@@ -1325,12 +1359,12 @@
       <selection activeCell="F1" sqref="F1:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1350,7 +1384,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>32</v>
       </c>
@@ -1368,7 +1402,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>33</v>
       </c>
@@ -1406,12 +1440,12 @@
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1431,7 +1465,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>32</v>
       </c>
@@ -1449,7 +1483,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>33</v>
       </c>
@@ -1487,14 +1521,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="65.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.88671875" customWidth="1"/>
-    <col min="6" max="6" width="30.5546875" customWidth="1"/>
+    <col min="2" max="2" width="65.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1514,7 +1548,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="374.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="405" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>37</v>
       </c>
@@ -1532,7 +1566,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>64</v>
       </c>
@@ -1550,7 +1584,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>65</v>
       </c>
@@ -1568,7 +1602,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="300" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>73</v>
       </c>

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5976AE-DE5A-4453-B322-48CFCB1EA5A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277D2EC7-4BD1-459C-B2FA-2BDC5FF2485E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1455" yWindow="1380" windowWidth="27120" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADS" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="91">
   <si>
     <t>Name</t>
   </si>
@@ -341,16 +341,34 @@
     <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/ADS/PKI_Credential_Roaming_Util/CRUtil.zip?raw=true</t>
   </si>
   <si>
+    <t>PKI_Credential_Roaming_Util</t>
+  </si>
+  <si>
     <t>Credential Roaming Utility (crutil) is tool for extracting the credential roaming relevant data from the AD user account, troubleshooting credential roaming issues and AD database size root cause analysis.
-The tool must be executed in the security context of the account that has read rights for AD user account of the user whose credential roaming AD data needs to be investigated. After specifying username and domainname (and optionally domain controller) and clicking "Get Credential Roaming AD User Data" button in the UI, the tool will generate CredRoamLogs folder (in the same folder where app binary is placed) and collect four csv files:
+The tool must be executed in the security context of the account that has read rights for AD user account of the user whose credential roaming AD data needs to be investigated. After specifying username and domainname (and optionally domain controller) and clicking ""Get Credential Roaming AD User Data"" button in the UI, the tool will generate CredRoamLogs folder (in the same folder where app binary is placed) and collect four csv files:
 UserCredRoamADObjData.csv with user's AD object relevant info: User_Name, User_Email_Addresses, User_Distinguisehd_Name, MsPKITimeCreationDate, MsPKITimeModifiedDate and PwdLastSetDateTime
-UserCredRoamADAttrData.csv with user's AD credential roaming attributes relevant info (please note that this information is stored as BLOB in AD): DIMS_Roaming_Status, Token_Type, Token_ID, Token_Size, Last_Roamed, Key_Info, Cert_Subject, Cert_Issuer and Cert_Template (Cert_Subject, Cert_Issuer, Cert_Template will be set to "not applicable" if the inspected BLOB value is not certificate)
+UserCredRoamADAttrData.csv with user's AD credential roaming attributes relevant info (please note that this information is stored as BLOB in AD): DIMS_Roaming_Status, Token_Type, Token_ID, Token_Size, Last_Roamed, Key_Info, Cert_Subject, Cert_Issuer and Cert_Template (Cert_Subject, Cert_Issuer, Cert_Template will be set to ""not applicable"" if the inspected BLOB value is not certificate)
 UserCredRoamLVRAttrData.csv with user's AD object relevant info: User_Name, User_Email_Addresses, User_Distinguisehd_Name, Version, Time_LastOrigChange, USN_Local_Change, USN_Originating_Change
-UserCredRoamLVRObjData.csv with user's AD credential roaming attributes relevant infos (please note that this information is stored as BLOB in AD): DIMS_Roaming_Status, Token_Type, Token_ID, Token_Size, Last_Roamed, Key_Info, Cert_Subject, Cert_Issuer, Cert_Template (Cert_Subject, Cert_Issuer, Cert_Template will be set to "not applicable" if the inspected BLOB value is not certificate)
+UserCredRoamLVRObjData.csv with user's AD credential roaming attributes relevant infos (please note that this information is stored as BLOB in AD): DIMS_Roaming_Status, Token_Type, Token_ID, Token_Size, Last_Roamed, Key_Info, Cert_Subject, Cert_Issuer, Cert_Template (Cert_Subject, Cert_Issuer, Cert_Template will be set to ""not applicable"" if the inspected BLOB value is not certificate)
 For more information about credential roaming technology, please refer to: https://social.technet.microsoft.com/wiki/contents/articles/11483.windows-credential-roaming.aspx https://blogs.technet.microsoft.com/askds/2009/01/06/certs-on-wheels-understanding-credential-roaming/</t>
   </si>
   <si>
-    <t>PKI_Credential_Roaming_Util</t>
+    <t>Data Collection, Analysis and Troubleshooting</t>
+  </si>
+  <si>
+    <t>PKI_Tools</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/ADS/PKI_Tools/PKI_Tools.zip?raw=true</t>
+  </si>
+  <si>
+    <t>"PKI Tools" is set of Public Key Infrastructure, Security and Directory Services troubleshooting tools provided by Microsoft Customer Support Services (CSS). "CAPI2 Log Explorer" tools is presented in the initial screen of "PKI Tools". Using "Tools" menu you can start further PKI tools and 1.1.0.0 "PKI Tools" release contains three additional tools: "LDIF Explorer", "PKI AD Parser" and "Credential Roaming Utility" (crutil.exe)
+DETAILS:
+1. "CAPI2 Log Explorer" provides an easy way to view the CAPI2 event log. It represents the CAPI2 activities in a user-friendly tree view grouped by activity IDs. Root nodes contain brief summary of the CAPI2 activities. Child nodes contain important information about the CAPI2 activity. The upper left pane contains tree view described above. The upper right pane contains summary for selected tree item and current filter settings. The lower pane contains XML representation of the selected event (child item).
+2. LDIF Explorer" provides an easy way to analyze directory export files, created using ldifde tool (out of box available on Windows Server domain controllers) Directory export files can be created using "ldifde -f file.txt -d "distinguished_name_of_AD_subtree". For example...executing this command on Active Direcotry domain controller: ldifde -f pki.txt -d "CN=Public Key Services,CN=Services,CN=Configuration,DC=CONTOSO,DC=COM" ... will generate pki.txt text file that contains all objects and attributes from AD subtree "CN=Public Key Services,CN=Services,CN=Configuration,DC=CONTOSO,DC=COM". However, pki.txt will contain unstructured text, difficult to view and parse - LDIF Explorer resolves this issue. By selecting File-&gt;Open and specifying exported ldf file, LDIF Explorer will provide hierarchical view of all objects and attributes. In addition to that you can save PKI relevant attributes (certificates and CRLs) into corresponding files by richt clicking the attribute and selecting "Export to Base 64".
+3. "Credential Roaming Utility (crutil)" is tool for extracting the credential roaming relevant data from the AD user account, troubleshooting credential roaming issues and AD database size root cause analysis. The tool must be executed in the security context of the account that has read rights for AD user account of the user whose credential roaming AD data needs to be investigated. After specifying username and domainname (and optionally domain controller) and clicking "Get Credential Roaming AD User Data" button in the UI, the tool will generate CredRoamLogs folder (in the same folder where app binary is placed) and collect four csv files: (i) UserCredRoamADObjData.csv with user's AD object relevant info: User_Name, User_Email_Addresses, User_Distinguisehd_Name, MsPKITimeCreationDate, MsPKITimeModifiedDate and PwdLastSetDateTime (ii) UserCredRoamADAttrData.csv with user's AD credential roaming attributes relevant info (please note that this information is stored as BLOB in AD): DIMS_Roaming_Status, Token_Type, Token_ID, Token_Size, Last_Roamed, Key_Info, Cert_Subject, Cert_Issuer and Cert_Template (Cert_Subject, Cert_Issuer, Cert_Template will be set to "not applicable" if the inspected BLOB value is not certificate) (iii) UserCredRoamLVRAttrData.csv with user's AD object relevant info: User_Name, User_Email_Addresses, User_Distinguisehd_Name, Version, Time_LastOrigChange, USN_Local_Change, USN_Originating_Change (iv) UserCredRoamLVRObjData.csv with user's AD credential roaming attributes relevant infos (please note that this information is stored as BLOB in AD): DIMS_Roaming_Status, Token_Type, Token_ID, Token_Size, Last_Roamed, Key_Info, Cert_Subject, Cert_Issuer, Cert_Template (Cert_Subject, Cert_Issuer, Cert_Template will be set to "not applicable" if the inspected BLOB value is not certificate) 
+For more information about credential roaming technology, please refer to: https://social.technet.microsoft.com/wiki/contents/articles/11483.windows-credential-roaming.aspx https://blogs.technet.microsoft.com/askds/2009/01/06/certs-on-wheels-understanding-credential-roaming/
+4. "PKI_AD_Parser" is PKI Troubleshooting tool used to dump and analyze PKI-relevant content in AD stored in Public Key Services container (CN=Public Key Services,CN=Services,CN=Configuration,DC=...,DC=...). PKI_AD_Parser creates two sets of useful information: (i) Folder structure, that mimics AD structure and contains relevant certificates and CRLs (ii) PKIReport.txt with Certificates, CRLs and Certificate Templates relevant information and, if enabled, it provides verification of certificates and CRLs stored in AD. The tool must be run in active directory environment; the tool reads info directly from AD. The account used for running tool must have read access to Public Key Services container. If DC is not specified, DC locator service will be used to find the DC. The resulting data will be placed in the PKI folder and by default stored in the current application folder. The location for storing the data, the name of target domain controller and option to peform certificate and crl verification can be configurred in UI.</t>
   </si>
 </sst>
 </file>
@@ -766,16 +784,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="59.28515625" customWidth="1"/>
-    <col min="2" max="2" width="55.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="91.28515625" style="5" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="20.140625" customWidth="1"/>
     <col min="5" max="6" width="64.7109375" customWidth="1"/>
@@ -983,10 +1001,10 @@
     </row>
     <row r="8" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
@@ -996,75 +1014,94 @@
         <v>84</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+    <row r="12" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="6" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>62</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E8" r:id="rId2" xr:uid="{7C9D4DF6-0513-4A75-B449-1C2C8F2F8709}"/>
+    <hyperlink ref="E8" r:id="rId2" xr:uid="{C3AF2AD0-A51E-44DC-8CAD-219C9AD4A45F}"/>
+    <hyperlink ref="E9" r:id="rId3" xr:uid="{793E9281-F6BD-493F-B2DB-378030C2F0C0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277D2EC7-4BD1-459C-B2FA-2BDC5FF2485E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9B2DD0-07F7-41EF-914D-22DE74F6D10F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -344,15 +344,6 @@
     <t>PKI_Credential_Roaming_Util</t>
   </si>
   <si>
-    <t>Credential Roaming Utility (crutil) is tool for extracting the credential roaming relevant data from the AD user account, troubleshooting credential roaming issues and AD database size root cause analysis.
-The tool must be executed in the security context of the account that has read rights for AD user account of the user whose credential roaming AD data needs to be investigated. After specifying username and domainname (and optionally domain controller) and clicking ""Get Credential Roaming AD User Data"" button in the UI, the tool will generate CredRoamLogs folder (in the same folder where app binary is placed) and collect four csv files:
-UserCredRoamADObjData.csv with user's AD object relevant info: User_Name, User_Email_Addresses, User_Distinguisehd_Name, MsPKITimeCreationDate, MsPKITimeModifiedDate and PwdLastSetDateTime
-UserCredRoamADAttrData.csv with user's AD credential roaming attributes relevant info (please note that this information is stored as BLOB in AD): DIMS_Roaming_Status, Token_Type, Token_ID, Token_Size, Last_Roamed, Key_Info, Cert_Subject, Cert_Issuer and Cert_Template (Cert_Subject, Cert_Issuer, Cert_Template will be set to ""not applicable"" if the inspected BLOB value is not certificate)
-UserCredRoamLVRAttrData.csv with user's AD object relevant info: User_Name, User_Email_Addresses, User_Distinguisehd_Name, Version, Time_LastOrigChange, USN_Local_Change, USN_Originating_Change
-UserCredRoamLVRObjData.csv with user's AD credential roaming attributes relevant infos (please note that this information is stored as BLOB in AD): DIMS_Roaming_Status, Token_Type, Token_ID, Token_Size, Last_Roamed, Key_Info, Cert_Subject, Cert_Issuer, Cert_Template (Cert_Subject, Cert_Issuer, Cert_Template will be set to ""not applicable"" if the inspected BLOB value is not certificate)
-For more information about credential roaming technology, please refer to: https://social.technet.microsoft.com/wiki/contents/articles/11483.windows-credential-roaming.aspx https://blogs.technet.microsoft.com/askds/2009/01/06/certs-on-wheels-understanding-credential-roaming/</t>
-  </si>
-  <si>
     <t>Data Collection, Analysis and Troubleshooting</t>
   </si>
   <si>
@@ -369,6 +360,20 @@
 3. "Credential Roaming Utility (crutil)" is tool for extracting the credential roaming relevant data from the AD user account, troubleshooting credential roaming issues and AD database size root cause analysis. The tool must be executed in the security context of the account that has read rights for AD user account of the user whose credential roaming AD data needs to be investigated. After specifying username and domainname (and optionally domain controller) and clicking "Get Credential Roaming AD User Data" button in the UI, the tool will generate CredRoamLogs folder (in the same folder where app binary is placed) and collect four csv files: (i) UserCredRoamADObjData.csv with user's AD object relevant info: User_Name, User_Email_Addresses, User_Distinguisehd_Name, MsPKITimeCreationDate, MsPKITimeModifiedDate and PwdLastSetDateTime (ii) UserCredRoamADAttrData.csv with user's AD credential roaming attributes relevant info (please note that this information is stored as BLOB in AD): DIMS_Roaming_Status, Token_Type, Token_ID, Token_Size, Last_Roamed, Key_Info, Cert_Subject, Cert_Issuer and Cert_Template (Cert_Subject, Cert_Issuer, Cert_Template will be set to "not applicable" if the inspected BLOB value is not certificate) (iii) UserCredRoamLVRAttrData.csv with user's AD object relevant info: User_Name, User_Email_Addresses, User_Distinguisehd_Name, Version, Time_LastOrigChange, USN_Local_Change, USN_Originating_Change (iv) UserCredRoamLVRObjData.csv with user's AD credential roaming attributes relevant infos (please note that this information is stored as BLOB in AD): DIMS_Roaming_Status, Token_Type, Token_ID, Token_Size, Last_Roamed, Key_Info, Cert_Subject, Cert_Issuer, Cert_Template (Cert_Subject, Cert_Issuer, Cert_Template will be set to "not applicable" if the inspected BLOB value is not certificate) 
 For more information about credential roaming technology, please refer to: https://social.technet.microsoft.com/wiki/contents/articles/11483.windows-credential-roaming.aspx https://blogs.technet.microsoft.com/askds/2009/01/06/certs-on-wheels-understanding-credential-roaming/
 4. "PKI_AD_Parser" is PKI Troubleshooting tool used to dump and analyze PKI-relevant content in AD stored in Public Key Services container (CN=Public Key Services,CN=Services,CN=Configuration,DC=...,DC=...). PKI_AD_Parser creates two sets of useful information: (i) Folder structure, that mimics AD structure and contains relevant certificates and CRLs (ii) PKIReport.txt with Certificates, CRLs and Certificate Templates relevant information and, if enabled, it provides verification of certificates and CRLs stored in AD. The tool must be run in active directory environment; the tool reads info directly from AD. The account used for running tool must have read access to Public Key Services container. If DC is not specified, DC locator service will be used to find the DC. The resulting data will be placed in the PKI folder and by default stored in the current application folder. The location for storing the data, the name of target domain controller and option to peform certificate and crl verification can be configurred in UI.</t>
+  </si>
+  <si>
+    <t>Credential Roaming Utility (crutil) is tool for extracting the credential roaming relevant data from the AD user account, troubleshooting credential roaming issues and AD database size root cause analysis.
+The tool must be executed in the security context of the account that has read rights for AD user account of the user whose credential roaming AD data needs to be investigated.
+After specifying username and domainname (and optionally domain controller) and clicking "Get Credential Roaming AD User Data" button in the UI, the tool will generate CredRoamLogs folder (in the same folder where app binary is placed) and collect four csv files:
+1. UserCredRoamADObjData.csv with user's AD object relevant info: User_Name, User_Email_Addresses, User_Distinguisehd_Name, MsPKITimeCreationDate, MsPKITimeModifiedDate and PwdLastSetDateTime
+2. UserCredRoamADAttrData.csv with user's AD credential roaming attributes relevant info (please note that this information is stored as BLOB in AD): DIMS_Roaming_Status, Token_Type, Token_ID, Token_Size, Last_Roamed, Key_Info, Cert_Subject, Cert_Issuer and Cert_Template
+(Cert_Subject, Cert_Issuer, Cert_Template will be set to "not applicable" if the inspected BLOB value is not certificate)
+3. UserCredRoamLVRAttrData.csv with user's AD object relevant info: User_Name, User_Email_Addresses, User_Distinguisehd_Name, Version, Time_LastOrigChange, USN_Local_Change, USN_Originating_Change
+4. UserCredRoamLVRObjData.csv with user's AD credential roaming attributes relevant infos (please note that this information is stored as BLOB in AD): DIMS_Roaming_Status, Token_Type, Token_ID, Token_Size, Last_Roamed, Key_Info, Cert_Subject, Cert_Issuer, Cert_Template
+(Cert_Subject, Cert_Issuer, Cert_Template will be set to "not applicable" if the inspected BLOB value is not certificate)
+For more information about credential roaming technology, please refer to:
+https://social.technet.microsoft.com/wiki/contents/articles/11483.windows-credential-roaming.aspx
+https://blogs.technet.microsoft.com/askds/2009/01/06/certs-on-wheels-understanding-credential-roaming/</t>
   </si>
 </sst>
 </file>
@@ -786,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -978,7 +983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>20</v>
       </c>
@@ -1004,7 +1009,7 @@
         <v>85</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
@@ -1014,28 +1019,28 @@
         <v>84</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
         <v>40</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>25</v>
       </c>
@@ -1058,7 +1063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
@@ -1076,7 +1081,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>27</v>
       </c>
@@ -1665,5 +1670,6 @@
     <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9B2DD0-07F7-41EF-914D-22DE74F6D10F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261B00F8-928C-4258-9069-28D3B6C1DFF2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -338,12 +338,6 @@
     <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/SHA/Hyper-V_Tracing_Using_Channels/Hyper-V_Tracing_Using_Channels.zip?raw=true</t>
   </si>
   <si>
-    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/ADS/PKI_Credential_Roaming_Util/CRUtil.zip?raw=true</t>
-  </si>
-  <si>
-    <t>PKI_Credential_Roaming_Util</t>
-  </si>
-  <si>
     <t>Data Collection, Analysis and Troubleshooting</t>
   </si>
   <si>
@@ -374,6 +368,12 @@
 For more information about credential roaming technology, please refer to:
 https://social.technet.microsoft.com/wiki/contents/articles/11483.windows-credential-roaming.aspx
 https://blogs.technet.microsoft.com/askds/2009/01/06/certs-on-wheels-understanding-credential-roaming/</t>
+  </si>
+  <si>
+    <t>PKI_CRUtil</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/ADS/PKI_CRUtil/CRUtil.zip?raw=true</t>
   </si>
 </sst>
 </file>
@@ -791,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,38 +1006,38 @@
     </row>
     <row r="8" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
         <v>40</v>
       </c>
       <c r="E8" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
         <v>40</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="75" x14ac:dyDescent="0.25">

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20343"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261B00F8-928C-4258-9069-28D3B6C1DFF2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400F3A00-C2B4-4238-9C78-911C43AB9829}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="43170" windowHeight="19005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ADS" sheetId="1" r:id="rId1"/>
-    <sheet name="NET" sheetId="2" r:id="rId2"/>
-    <sheet name="SHA" sheetId="3" r:id="rId3"/>
-    <sheet name="PRF" sheetId="4" r:id="rId4"/>
-    <sheet name="UEX" sheetId="5" r:id="rId5"/>
-    <sheet name="DND" sheetId="6" r:id="rId6"/>
-    <sheet name="ALL" sheetId="7" r:id="rId7"/>
+    <sheet name="ALL" sheetId="7" r:id="rId1"/>
+    <sheet name="ADS" sheetId="1" r:id="rId2"/>
+    <sheet name="NET" sheetId="2" r:id="rId3"/>
+    <sheet name="SHA" sheetId="3" r:id="rId4"/>
+    <sheet name="PRF" sheetId="4" r:id="rId5"/>
+    <sheet name="UEX" sheetId="5" r:id="rId6"/>
+    <sheet name="DND" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="95">
   <si>
     <t>Name</t>
   </si>
@@ -147,21 +147,6 @@
   </si>
   <si>
     <t>TSS</t>
-  </si>
-  <si>
-    <t>TSS TroubleShootingScript/toolset for rapid flexible data collection for CritSit and standard cases. This TSS TroubleShootingScript/toolset aims for rapid data collection for CritSit and standard cases.
-Download share: \\emeaCssDfs\netpod\Tools-Scripts\Troubleshooting-Script\ - please always downlaod latest available tss_tools_v1.*.zip
-Because of the bigger size, there is a separate zip, which includes iDNA/TTT binaries: in sub folder \TTT\tss_tools_ttt_v1.*.zip, which includes TTT_x86_x64_external.zip
-TSS Goal: helping you to collect data and solve incidents in the shortest timeframe
-Internal + external tss_tools_v*.zip-integrated documentation: tss.cmd_ReadMe_Help.docx
-Benefits of using TSS for many cases/customer incidents
-- for all involved parties: huge time saver working on SRs
-- for customer, no complicated manual action plans
-- for engineer, no need for writing long action plans, discussing plan on phone
-- for Backline SEE/EE no lengthy handover discussion on available/or missing data
-- TSS ensures consistent data sets with timestamps in log file and PSR
-- automatic stop trigger when investigating intermittent issues (no repro at will)
-The More Information section is included in the current version of the word doc contained in tss_tools_v1.*.zip and tss_tools_ttt_v1.*.zip</t>
   </si>
   <si>
     <t>Nick</t>
@@ -302,9 +287,6 @@
   </si>
   <si>
     <t>\\dummymachine\dummyinternalshare\Package1.zip</t>
-  </si>
-  <si>
-    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/NET/TSS/tss_tools_v1.80.06.zip?raw=true</t>
   </si>
   <si>
     <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/ALL/psSDP/psSDP-offline.zip?raw=true</t>
@@ -374,6 +356,58 @@
   </si>
   <si>
     <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/ADS/PKI_CRUtil/CRUtil.zip?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/ALL/TSS/tss_tools.zip?raw=true</t>
+  </si>
+  <si>
+    <t>TSS TroubleShootingScript/toolset for rapid flexible data collection for CritSit and standard cases. This TSS TroubleShootingScript/toolset aims for rapid data collection for CritSit and standard cases.  - Please always downlaod latest availabe package
+Because of the bigger size, there is a separate zip, which includes iDNA/TTT binaries: in sub folder \TTT\tss_tools_ttt.zip, which includes TTT_x86_x64_external.zip
+TSS Goal: helping you to collect data and solve incidents in the shortest timeframe
+Internal + external tss_tools.zip-integrated documentation: tss.cmd_ReadMe_Help.docx
+Benefits of using TSS for many cases/customer incidents
+- for all involved parties: huge time saver working on SRs
+- for customer, no complicated manual action plans
+- for engineer, no need for writing long action plans, discussing plan on phone
+- for Backline SEE/EE no lengthy handover discussion on available/or missing data
+- TSS ensures consistent data sets with timestamps in log file and PSR
+- automatic stop trigger when investigating intermittent issues (no repro at will)
+The More Information section is included in the current version of the word doc contained in tss_tools.zip and tss_tools_ttt.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psSDP is PowerShell based SDP (Support Diagnostic Package) as an alternative to traditional Microsoft **Support Diagnostic Packages**
+Purpose
+Collect **SDP** speciality report on Microsoft Windows systems
+Usage
+To start data collection, run in an elevated PowerShell window
+ ` .\get-psSDP.ps1 [Net|Dom|CTS|Print|HyperV|Setup|Cluster|Perf|SQLbase|Mini|Nano] `
+ Example for SDP Networking Diagnostic:  
+  `.\get-psSDP.ps1 Net`
+ Example for SDP Basic (mini) data collection: 
+ `.\get-psSDP.ps1 Mini`
+  Example for SDP Net without zipping results:
+  `.\get-psSDP.ps1 Net NoCab`
+</t>
+  </si>
+  <si>
+    <t>TSS_tools_ttt</t>
+  </si>
+  <si>
+    <t>TSS TroubleShootingScript/toolset for rapid flexible data collection for CritSit and standard cases. This TSS TroubleShootingScript/toolset aims for rapid data collection for CritSit and standard cases.  - Please always downlaod latest availabe package
+Because of the bigger size, this is a separate zip, which includes iDNA/TTT binaries: in sub folder \TTD\tss_tools_ttt.zip, which includes TTT_x86_x64_external.zip
+TSS Goal: helping you to collect data and solve incidents in the shortest timeframe
+Internal + external tss_tools_ttt.zip-integrated documentation: tss.cmd_ReadMe_Help.docx
+Benefits of using TSS for many cases/customer incidents
+- for all involved parties: huge time saver working on SRs
+- for customer, no complicated manual action plans
+- for engineer, no need for writing long action plans, discussing plan on phone
+- for Backline SEE/EE no lengthy handover discussion on available/or missing data
+- TSS ensures consistent data sets with timestamps in log file and PSR
+- automatic stop trigger when investigating intermittent issues (no repro at will)
+The More Information section is included in the current version of the word doc contained in tss_tools_ttt.zip</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/ALL/TSS/TTD/tss_tools_ttt.zip?raw=true</t>
   </si>
 </sst>
 </file>
@@ -510,8 +544,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -788,14 +822,153 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="390" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="390" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="E2" r:id="rId4" xr:uid="{71692038-50AB-4468-B343-A9A55863E0E3}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{5CD8526D-0FAD-4C89-8AC2-6C315B7E87A3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="59.28515625" customWidth="1"/>
     <col min="2" max="2" width="91.28515625" style="5" customWidth="1"/>
@@ -819,10 +992,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -849,13 +1022,13 @@
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G2">
         <v>9</v>
@@ -881,13 +1054,13 @@
         <v>35</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -913,13 +1086,13 @@
         <v>35</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -942,19 +1115,19 @@
         <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -971,13 +1144,13 @@
         <v>35</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -992,13 +1165,13 @@
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1006,38 +1179,38 @@
     </row>
     <row r="8" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -1051,13 +1224,13 @@
         <v>35</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1072,13 +1245,13 @@
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1090,13 +1263,13 @@
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1110,15 +1283,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64.5703125" customWidth="1"/>
@@ -1141,64 +1314,64 @@
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="390" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="300" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1212,15 +1385,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
     <col min="2" max="2" width="42.42578125" customWidth="1"/>
@@ -1241,64 +1414,64 @@
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>68</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="405" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1312,7 +1485,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -1320,7 +1493,7 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="58" customWidth="1"/>
   </cols>
@@ -1339,10 +1512,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1357,10 +1530,10 @@
         <v>31</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1377,10 +1550,10 @@
         <v>30</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1393,7 +1566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -1401,7 +1574,7 @@
       <selection activeCell="F1" sqref="F1:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
@@ -1420,10 +1593,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -1438,10 +1611,10 @@
         <v>31</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -1458,10 +1631,10 @@
         <v>30</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1474,7 +1647,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -1482,7 +1655,7 @@
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
@@ -1501,10 +1674,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -1519,10 +1692,10 @@
         <v>31</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -1539,10 +1712,10 @@
         <v>30</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1553,123 +1726,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="65.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="405" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="300" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId5"/>
-</worksheet>
 </file>
--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20343"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400F3A00-C2B4-4238-9C78-911C43AB9829}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C150EAE5-B68A-4D8D-9119-F90E19FE0CB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="43170" windowHeight="19005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="105">
   <si>
     <t>Name</t>
   </si>
@@ -393,7 +393,40 @@
     <t>TSS_tools_ttt</t>
   </si>
   <si>
-    <t>TSS TroubleShootingScript/toolset for rapid flexible data collection for CritSit and standard cases. This TSS TroubleShootingScript/toolset aims for rapid data collection for CritSit and standard cases.  - Please always downlaod latest availabe package
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/ALL/TSS/TTD/tss_tools_ttt.zip?raw=true</t>
+  </si>
+  <si>
+    <t>Analysis and Troubleshooting</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/NET/NetworkMonitor_Parsers_03_04_2978_x64/NetworkMonitor_Parsers_03_04_2978_x64.zip?raw=true</t>
+  </si>
+  <si>
+    <t>NetMon Parser</t>
+  </si>
+  <si>
+    <t>Latest MS Network Monitor Parsers, released after Windows 8, but newer than the default Parsers published with the Netmon 3.4 download.
+Package is provided as-is. Further updates are not expected. To uninstall them you need to uninstall Netmon and reinstall with defaults.</t>
+  </si>
+  <si>
+    <t>Roland</t>
+  </si>
+  <si>
+    <t>TSS TroubleShootingScript/toolset for rapid flexible data collection for CritSit and standard cases. This toolset aims for rapid data collection for CritSit and standard cases.  - Please always downlaod latest availabe package. 
+Because of the bigger size, there is a separate zip, which includes iDNA/TTT binaries: in sub folder \TTT\tss_tools_ttt.zip, which includes TTT_x86_x64_external.zip
+TSS Goal: helping you to collect data and solve incidents in the shortest timeframe
+Internal + external tss_tools.zip-integrated documentation: tss.cmd_ReadMe_Help.docx
+Benefits of using TSS for many cases/customer incidents
+- for all involved parties: huge time saver working on SRs
+- for customer, no complicated manual action plans
+- for engineer, no need for writing long action plans, discussing plan on phone
+- for Backline SEE/EE no lengthy handover discussion on available/or missing data
+- TSS ensures consistent data sets with timestamps in log file and PSR
+- automatic stop trigger when investigating intermittent issues (no repro at will)
+The More Information section is included in the current version of the word doc contained in tss_tools.zip and tss_tools_ttt.zip</t>
+  </si>
+  <si>
+    <t>TSS TroubleShootingScript/toolset for rapid flexible data collection for CritSit and standard cases. This toolset aims for rapid data collection for CritSit and standard cases.  - Please always downlaod latest availabe package. 
 Because of the bigger size, this is a separate zip, which includes iDNA/TTT binaries: in sub folder \TTD\tss_tools_ttt.zip, which includes TTT_x86_x64_external.zip
 TSS Goal: helping you to collect data and solve incidents in the shortest timeframe
 Internal + external tss_tools_ttt.zip-integrated documentation: tss.cmd_ReadMe_Help.docx
@@ -407,7 +440,21 @@
 The More Information section is included in the current version of the word doc contained in tss_tools_ttt.zip</t>
   </si>
   <si>
-    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/ALL/TSS/TTD/tss_tools_ttt.zip?raw=true</t>
+    <t>UCSlogTool</t>
+  </si>
+  <si>
+    <t>UCS Compatibility Log Collection Tool for Windows 10 Download: https://www.microsoft.com/en-us/download/details.aspx?id=54322
+Wrapper for collecting a standard set of trace logs 
+Supported Operating System 
+Windows 10 
+Install Instruction
+Unzip and save the installers locally. Choose the correct tool version (x64 or x86) and install the corresponding MSI by double clicking on it. Once you install the package, a shortcut for the 'UCSLogTool' and the Readme will appear on your desktop. Double click the icon to run the tool.</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/NET/UCSlogTool/UCSlogTool.zip?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/ALL/UCSlogTool/UCSlogTool.zip?raw=true</t>
   </si>
 </sst>
 </file>
@@ -823,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,7 +909,7 @@
         <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
@@ -875,88 +922,107 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="390" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="12" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E4" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="F4" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="240" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="390" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="240" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="E4" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
-    <hyperlink ref="E5" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="E6" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
     <hyperlink ref="E2" r:id="rId4" xr:uid="{71692038-50AB-4468-B343-A9A55863E0E3}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{5CD8526D-0FAD-4C89-8AC2-6C315B7E87A3}"/>
+    <hyperlink ref="E3" r:id="rId5" xr:uid="{5CD8526D-0FAD-4C89-8AC2-6C315B7E87A3}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{3DC632B2-5D6C-4F99-9904-3C15D719544E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId6"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -964,8 +1030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1285,10 +1351,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1374,14 +1440,52 @@
         <v>61</v>
       </c>
     </row>
+    <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
     <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{B72C8287-B847-437C-B408-FD43E077B13C}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{CA56883D-0BA7-410A-B211-0587B1D87EBF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -1390,7 +1494,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1435,7 +1539,7 @@
         <v>67</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="150" x14ac:dyDescent="0.25">
@@ -1453,7 +1557,7 @@
         <v>68</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="405" x14ac:dyDescent="0.25">
@@ -1571,7 +1675,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1606,7 +1710,9 @@
       <c r="B2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="D2" s="6" t="s">
         <v>31</v>
       </c>
@@ -1625,7 +1731,7 @@
         <v>34</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>30</v>
@@ -1652,7 +1758,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1705,9 +1811,7 @@
       <c r="B3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
         <v>30</v>
       </c>

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20343"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C150EAE5-B68A-4D8D-9119-F90E19FE0CB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7903AAD-8F93-4856-B2D6-0C9A2FB96FD2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="43170" windowHeight="19005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4695" yWindow="3030" windowWidth="21600" windowHeight="14070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="110">
   <si>
     <t>Name</t>
   </si>
@@ -455,6 +455,24 @@
   </si>
   <si>
     <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/ALL/UCSlogTool/UCSlogTool.zip?raw=true</t>
+  </si>
+  <si>
+    <t>Norepad</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/ALL/Norepad/Norepad.zip?raw=true</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>NOREPAD - Reader application for huge text files.
+This can be big ETL files or AD “dumpdatabase” dumps. Normal “editor” type applications give up in the xxGB range, Norepad opens them without delay.
+NOREPAD does become slower searching the files as they become bigger, but there is no upper size limit on files it can open. You can open one file per instance, but have multiple search windows per file.
+The behavior selecting text is strange, it really only works with the mouse. Select bigger areas using the Shift key and clicking on the target end of selection location with the mouse. For example, se that to copy interesting sections into text buffers of regular editors.</t>
+  </si>
+  <si>
+    <t>Data Analysis</t>
   </si>
 </sst>
 </file>
@@ -557,7 +575,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -589,10 +607,13 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -870,16 +891,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100" customWidth="1"/>
     <col min="5" max="5" width="34.85546875" customWidth="1"/>
     <col min="6" max="6" width="30.5703125" customWidth="1"/>
   </cols>
@@ -1011,6 +1032,168 @@
       <c r="F7" s="3" t="s">
         <v>61</v>
       </c>
+    </row>
+    <row r="8" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1020,9 +1203,10 @@
     <hyperlink ref="E2" r:id="rId4" xr:uid="{71692038-50AB-4468-B343-A9A55863E0E3}"/>
     <hyperlink ref="E3" r:id="rId5" xr:uid="{5CD8526D-0FAD-4C89-8AC2-6C315B7E87A3}"/>
     <hyperlink ref="E7" r:id="rId6" xr:uid="{3DC632B2-5D6C-4F99-9904-3C15D719544E}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{9EBC21ED-5E28-42F1-A331-70A83C7CEF32}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId7"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -1034,7 +1218,7 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="59.28515625" customWidth="1"/>
     <col min="2" max="2" width="91.28515625" style="5" customWidth="1"/>
@@ -1357,7 +1541,7 @@
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64.5703125" customWidth="1"/>
@@ -1497,7 +1681,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
     <col min="2" max="2" width="42.42578125" customWidth="1"/>
@@ -1597,7 +1781,7 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="58" customWidth="1"/>
   </cols>
@@ -1678,7 +1862,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
@@ -1761,7 +1945,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7903AAD-8F93-4856-B2D6-0C9A2FB96FD2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC75536-EE7A-4C66-B2AD-FB0E911D4DA9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4695" yWindow="3030" windowWidth="21600" windowHeight="14070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="118">
   <si>
     <t>Name</t>
   </si>
@@ -473,6 +473,37 @@
   </si>
   <si>
     <t>Data Analysis</t>
+  </si>
+  <si>
+    <t>AD_Replfix</t>
+  </si>
+  <si>
+    <t>Herbert</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/ADS/AD_Replfix/AD_Replfix.zip?raw=true</t>
+  </si>
+  <si>
+    <t>ReplFix - Replica Consistency Tool, Version 1.1 (for Windws Server 2016 and later)
+ReplFix version 1.1 detects and corrects lingering objects inconsistencies between two Domain Controllers (DC).
+In a very limited way, ReplFix 1.1 detects and corrects lingering values inconsistencies between a quiesced GC hosting a writable copy and a quiesced GC hosting a read-only copy of a domain partition.
+An ldifde script is created that corrects the differences but since replication latency is not taken into account, the script must be reviewed for correctness.
+The commandline syntax is: replfix [-?]</t>
+  </si>
+  <si>
+    <t>AD_Utils</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/ADS/AD_Utils/AD_Utils.zip?raw=true</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>AD_Utils
+Colleciton of useful AD troubleshooting utilities
+1. Guid-Sid-Base64
+Needed when interacting with sid and guid and base64 and text version.</t>
   </si>
 </sst>
 </file>
@@ -891,10 +922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,7 +992,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>63</v>
       </c>
@@ -1050,150 +1081,6 @@
       <c r="F8" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="8"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1212,10 +1099,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1504,21 +1391,57 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1527,9 +1450,11 @@
     <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="E8" r:id="rId2" xr:uid="{C3AF2AD0-A51E-44DC-8CAD-219C9AD4A45F}"/>
     <hyperlink ref="E9" r:id="rId3" xr:uid="{793E9281-F6BD-493F-B2DB-378030C2F0C0}"/>
+    <hyperlink ref="E12" r:id="rId4" xr:uid="{CB2EBCE9-9C88-4C66-A386-5AF9858BB15E}"/>
+    <hyperlink ref="E13" r:id="rId5" xr:uid="{EC4E02A1-03F3-42DA-A5F5-7E81F2C7714E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC75536-EE7A-4C66-B2AD-FB0E911D4DA9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95EF5F9E-7342-48AA-A728-684A9AD086F4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="118">
   <si>
     <t>Name</t>
   </si>
@@ -159,9 +159,6 @@
   </si>
   <si>
     <t>Bousso; Tolu</t>
-  </si>
-  <si>
-    <t>Marius</t>
   </si>
   <si>
     <t>Marius; Milan</t>
@@ -504,6 +501,9 @@
 Colleciton of useful AD troubleshooting utilities
 1. Guid-Sid-Base64
 Needed when interacting with sid and guid and base64 and text version.</t>
+  </si>
+  <si>
+    <t>Marius; Nick</t>
   </si>
 </sst>
 </file>
@@ -950,10 +950,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="390" x14ac:dyDescent="0.25">
@@ -961,125 +961,125 @@
         <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="390" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>67</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="240" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1101,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1129,10 +1129,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1162,10 +1162,10 @@
         <v>38</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G2">
         <v>9</v>
@@ -1194,10 +1194,10 @@
         <v>39</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -1226,10 +1226,10 @@
         <v>40</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -1252,7 +1252,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>35</v>
@@ -1261,10 +1261,10 @@
         <v>41</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1277,17 +1277,15 @@
       <c r="B6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>35</v>
-      </c>
+      <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1305,10 +1303,10 @@
         <v>39</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1316,38 +1314,38 @@
     </row>
     <row r="8" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
         <v>39</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -1361,13 +1359,13 @@
         <v>35</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1382,49 +1380,49 @@
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>112</v>
-      </c>
       <c r="F12" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1439,10 +1437,10 @@
         <v>39</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1489,10 +1487,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="390" x14ac:dyDescent="0.25">
@@ -1500,89 +1498,89 @@
         <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="300" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1627,64 +1625,64 @@
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>67</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="405" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1725,10 +1723,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1743,10 +1741,10 @@
         <v>31</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1763,10 +1761,10 @@
         <v>30</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1806,10 +1804,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -1826,10 +1824,10 @@
         <v>31</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -1846,10 +1844,10 @@
         <v>30</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1889,10 +1887,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -1907,10 +1905,10 @@
         <v>31</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -1925,10 +1923,10 @@
         <v>30</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95EF5F9E-7342-48AA-A728-684A9AD086F4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB12F40-CD69-4803-8CE2-AD7036E62CE6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="122">
   <si>
     <t>Name</t>
   </si>
@@ -504,6 +504,18 @@
   </si>
   <si>
     <t>Marius; Nick</t>
+  </si>
+  <si>
+    <t>AD_ESR</t>
+  </si>
+  <si>
+    <t>Provided are Enterprise State Roaming (ESR) scripts that enable tracing, debug logging and collect data that can be used to investigate Enterprise State Roaming scenarios (aka ESR) and related component scenarios.</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/ADS/AD_ESR/AD_ESR.zip?raw=true</t>
+  </si>
+  <si>
+    <t>Prashant</t>
   </si>
 </sst>
 </file>
@@ -643,8 +655,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -928,7 +940,7 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="100" customWidth="1"/>
@@ -1099,13 +1111,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="59.28515625" customWidth="1"/>
     <col min="2" max="2" width="91.28515625" style="5" customWidth="1"/>
@@ -1427,19 +1439,37 @@
     </row>
     <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1450,9 +1480,10 @@
     <hyperlink ref="E9" r:id="rId3" xr:uid="{793E9281-F6BD-493F-B2DB-378030C2F0C0}"/>
     <hyperlink ref="E12" r:id="rId4" xr:uid="{CB2EBCE9-9C88-4C66-A386-5AF9858BB15E}"/>
     <hyperlink ref="E13" r:id="rId5" xr:uid="{EC4E02A1-03F3-42DA-A5F5-7E81F2C7714E}"/>
+    <hyperlink ref="E14" r:id="rId6" xr:uid="{C7D97BC0-1ECC-4DE5-BCA0-DE00F2348907}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -1464,7 +1495,7 @@
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64.5703125" customWidth="1"/>
@@ -1604,7 +1635,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
     <col min="2" max="2" width="42.42578125" customWidth="1"/>
@@ -1704,7 +1735,7 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="58" customWidth="1"/>
   </cols>
@@ -1785,7 +1816,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
@@ -1868,7 +1899,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB12F40-CD69-4803-8CE2-AD7036E62CE6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD1AA30-C3FC-4892-943F-59C92BD73C3F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="126">
   <si>
     <t>Name</t>
   </si>
@@ -516,6 +516,18 @@
   </si>
   <si>
     <t>Prashant</t>
+  </si>
+  <si>
+    <t>Trace-process</t>
+  </si>
+  <si>
+    <t>Vincent</t>
+  </si>
+  <si>
+    <t>Collects IDNA aka Time Travel Traces for one or several processes + run RADAR tools that helps reporting heap leaks or high heap memory</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/ALL/Trace-process/Trace-process.zip?raw=true</t>
   </si>
 </sst>
 </file>
@@ -655,8 +667,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -934,13 +946,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="100" customWidth="1"/>
@@ -1058,7 +1070,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>100</v>
       </c>
@@ -1092,6 +1104,24 @@
       </c>
       <c r="F8" s="3" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1101,11 +1131,12 @@
     <hyperlink ref="E6" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
     <hyperlink ref="E2" r:id="rId4" xr:uid="{71692038-50AB-4468-B343-A9A55863E0E3}"/>
     <hyperlink ref="E3" r:id="rId5" xr:uid="{5CD8526D-0FAD-4C89-8AC2-6C315B7E87A3}"/>
-    <hyperlink ref="E7" r:id="rId6" xr:uid="{3DC632B2-5D6C-4F99-9904-3C15D719544E}"/>
-    <hyperlink ref="E8" r:id="rId7" xr:uid="{9EBC21ED-5E28-42F1-A331-70A83C7CEF32}"/>
+    <hyperlink ref="E9" r:id="rId6" xr:uid="{9EBC21ED-5E28-42F1-A331-70A83C7CEF32}"/>
+    <hyperlink ref="E7" r:id="rId7" xr:uid="{3DC632B2-5D6C-4F99-9904-3C15D719544E}"/>
+    <hyperlink ref="E8" r:id="rId8" xr:uid="{3EE04AAF-970F-4627-AE33-60A84648E343}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId8"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -1113,11 +1144,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="59.28515625" customWidth="1"/>
     <col min="2" max="2" width="91.28515625" style="5" customWidth="1"/>
@@ -1495,7 +1526,7 @@
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64.5703125" customWidth="1"/>
@@ -1635,7 +1666,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
     <col min="2" max="2" width="42.42578125" customWidth="1"/>
@@ -1735,7 +1766,7 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="58" customWidth="1"/>
   </cols>
@@ -1816,7 +1847,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
@@ -1899,7 +1930,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD1AA30-C3FC-4892-943F-59C92BD73C3F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C70E3AD-EE32-4CAC-B71B-C46F885CC4FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="130">
   <si>
     <t>Name</t>
   </si>
@@ -528,6 +528,19 @@
   </si>
   <si>
     <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/ALL/Trace-process/Trace-process.zip?raw=true</t>
+  </si>
+  <si>
+    <t>The script is used to collect ETL traces needed for Container Networking scenario. It collect HNS ETL for Container Networking and TCPIP/WFP/VFP/WinNAT ETL for Container Networking Datapath.
+Alternate approach: downlaod TSS toolset and invoke: TSS Container</t>
+  </si>
+  <si>
+    <t>Containernet</t>
+  </si>
+  <si>
+    <t>Luyao Feng</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/NET/Containernet/containernet.zip?raw=true</t>
   </si>
 </sst>
 </file>
@@ -667,8 +680,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -948,11 +961,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="100" customWidth="1"/>
@@ -1148,7 +1161,7 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="59.28515625" customWidth="1"/>
     <col min="2" max="2" width="91.28515625" style="5" customWidth="1"/>
@@ -1520,13 +1533,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64.5703125" customWidth="1"/>
@@ -1609,39 +1622,57 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="210" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E7" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1650,8 +1681,8 @@
     <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
     <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{B72C8287-B847-437C-B408-FD43E077B13C}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{CA56883D-0BA7-410A-B211-0587B1D87EBF}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{B72C8287-B847-437C-B408-FD43E077B13C}"/>
+    <hyperlink ref="E7" r:id="rId5" xr:uid="{CA56883D-0BA7-410A-B211-0587B1D87EBF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
@@ -1666,7 +1697,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
     <col min="2" max="2" width="42.42578125" customWidth="1"/>
@@ -1766,7 +1797,7 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="58" customWidth="1"/>
   </cols>
@@ -1847,7 +1878,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
@@ -1930,7 +1961,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C70E3AD-EE32-4CAC-B71B-C46F885CC4FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FEB1448-1DA6-4879-A621-E195D58A469F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="133">
   <si>
     <t>Name</t>
   </si>
@@ -198,9 +198,6 @@
   </si>
   <si>
     <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/PRF/Package2/Package2.zip?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/Package1/Package1.zip?raw=true</t>
   </si>
   <si>
     <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/Package2/Package2.zip?raw=true</t>
@@ -541,6 +538,18 @@
   </si>
   <si>
     <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/NET/Containernet/containernet.zip?raw=true</t>
+  </si>
+  <si>
+    <t>WMI-Collect</t>
+  </si>
+  <si>
+    <t>PowerShell script to simplify the collection of WMI troubleshooting data and make our action plans easier.</t>
+  </si>
+  <si>
+    <t>Gianni Bragante</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/WMI-Collect/WMI-Collect.zip?raw=true</t>
   </si>
 </sst>
 </file>
@@ -990,7 +999,7 @@
         <v>44</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="390" x14ac:dyDescent="0.25">
@@ -998,143 +1007,143 @@
         <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="390" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>66</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="240" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1188,7 +1197,7 @@
         <v>44</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1221,7 +1230,7 @@
         <v>45</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G2">
         <v>9</v>
@@ -1253,7 +1262,7 @@
         <v>46</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -1285,7 +1294,7 @@
         <v>47</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -1308,7 +1317,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>35</v>
@@ -1320,7 +1329,7 @@
         <v>48</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1335,13 +1344,13 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>49</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1362,7 +1371,7 @@
         <v>50</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1370,38 +1379,38 @@
     </row>
     <row r="8" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
         <v>39</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -1421,7 +1430,7 @@
         <v>51</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1442,61 +1451,61 @@
         <v>52</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>111</v>
-      </c>
       <c r="F12" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1514,7 +1523,7 @@
         <v>53</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1535,7 +1544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1565,7 +1574,7 @@
         <v>44</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="390" x14ac:dyDescent="0.25">
@@ -1573,107 +1582,107 @@
         <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="300" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>129</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1721,61 +1730,61 @@
         <v>44</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>66</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="405" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1819,7 +1828,7 @@
         <v>44</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1834,10 +1843,10 @@
         <v>31</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1857,7 +1866,7 @@
         <v>54</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1874,8 +1883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1900,27 +1909,25 @@
         <v>44</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="240" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>32</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -1937,10 +1944,10 @@
         <v>30</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1983,7 +1990,7 @@
         <v>44</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -1998,10 +2005,10 @@
         <v>31</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -2016,10 +2023,10 @@
         <v>30</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FEB1448-1DA6-4879-A621-E195D58A469F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739AAADD-703B-4B50-92AA-70475CC6D31A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="7" r:id="rId1"/>
@@ -152,9 +152,6 @@
     <t>Nick</t>
   </si>
   <si>
-    <t>Milan</t>
-  </si>
-  <si>
     <t>Tolu</t>
   </si>
   <si>
@@ -550,6 +547,9 @@
   </si>
   <si>
     <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/WMI-Collect/WMI-Collect.zip?raw=true</t>
+  </si>
+  <si>
+    <t>Milan Milosavljevic</t>
   </si>
 </sst>
 </file>
@@ -996,10 +996,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="390" x14ac:dyDescent="0.25">
@@ -1007,143 +1007,143 @@
         <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="390" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>65</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="240" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1166,8 +1166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1194,10 +1194,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1227,10 +1227,10 @@
         <v>38</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G2">
         <v>9</v>
@@ -1256,13 +1256,13 @@
         <v>35</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -1288,13 +1288,13 @@
         <v>35</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -1317,19 +1317,19 @@
         <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1344,13 +1344,13 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1365,13 +1365,13 @@
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7" t="s">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1379,38 +1379,38 @@
     </row>
     <row r="8" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -1424,13 +1424,13 @@
         <v>35</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1445,67 +1445,67 @@
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>110</v>
-      </c>
       <c r="F12" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1517,13 +1517,13 @@
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="6" t="s">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1571,10 +1571,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="390" x14ac:dyDescent="0.25">
@@ -1582,107 +1582,107 @@
         <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="300" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>128</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1727,64 +1727,64 @@
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>65</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="405" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1825,10 +1825,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1843,10 +1843,10 @@
         <v>31</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1863,10 +1863,10 @@
         <v>30</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1883,7 +1883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -1906,28 +1906,28 @@
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="240" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>130</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>132</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -1944,10 +1944,10 @@
         <v>30</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1987,10 +1987,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -2005,10 +2005,10 @@
         <v>31</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -2023,10 +2023,10 @@
         <v>30</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739AAADD-703B-4B50-92AA-70475CC6D31A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D122D5D-3740-484D-BD92-9F4BD307340D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="137">
   <si>
     <t>Name</t>
   </si>
@@ -550,6 +550,23 @@
   </si>
   <si>
     <t>Milan Milosavljevic</t>
+  </si>
+  <si>
+    <t>RDSTracing</t>
+  </si>
+  <si>
+    <t>RDSTracing collects configuration data and traces for RDS/Terminal Services clients and servers using a simple UI or via a command line
+Based on the tick boxes (or command line options) it will enable various ETW providers, and trace to a number of sessions. For RDWeb and WS08 Broker it makes the registry/web.config changes directly (prompting for service restarts as required) and collects the relevant files at the end of tracing (rdweb.log and tssdis.log).
+You can use the applet to simply turn on RDWeb and TSSDIS (Session Directory) logging (latter if on WS08; on R2 it is via ETW). Just open the tool; click the enable/disable button, and close. If either of these non-ETW logs are not enabled and you start tracing, the tool will enable them for the trace session, then disable them after.
+Even though the WMI ETW is a pile of pants (slightly better with Insight Client decoding; which includes function name by default), you can tick it as well, and if no other fields are ticked this is a direct replacement for WMITracer. Spooler tracing is similarly available - deselecting all other options except printing will capture ETW for all types of printing issues.
+When you stop tracing, all the necessary files are added to a CAB file; and you are presented (via ShellExecute) the folder where it resides; for emailing to Microsoft.
+the *__RDSTRACING.log file contains run status of the tool, as well as some configuration data such as running service information.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sasha Loncarevic </t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/RDSTracing/RDSTracing.zip?raw=true</t>
   </si>
 </sst>
 </file>
@@ -689,8 +706,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -974,7 +991,7 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="100" customWidth="1"/>
@@ -1166,11 +1183,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="59.28515625" customWidth="1"/>
     <col min="2" max="2" width="91.28515625" style="5" customWidth="1"/>
@@ -1548,7 +1565,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64.5703125" customWidth="1"/>
@@ -1706,7 +1723,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
     <col min="2" max="2" width="42.42578125" customWidth="1"/>
@@ -1806,7 +1823,7 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="58" customWidth="1"/>
   </cols>
@@ -1881,15 +1898,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="59" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1930,33 +1950,52 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E4" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{777CBDDE-1A1E-404E-9D00-7F4113894C95}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -1968,7 +2007,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D122D5D-3740-484D-BD92-9F4BD307340D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE05D00-674F-408C-9193-9C9CFC590954}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="140">
   <si>
     <t>Name</t>
   </si>
@@ -198,9 +198,6 @@
   </si>
   <si>
     <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/Package2/Package2.zip?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/DND/Package1/Package1.zip?raw=true</t>
   </si>
   <si>
     <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/DND/Package2/Package2.zip?raw=true</t>
@@ -567,6 +564,24 @@
   </si>
   <si>
     <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/RDSTracing/RDSTracing.zip?raw=true</t>
+  </si>
+  <si>
+    <t>SetupReport gathers wide wide variety of data including the following broad categories (when available on the system):
+• Windows Setup Information including contents of ~Windows.~BT folder and the Windows Panther logs.
+• Windows Update Information including Windows Update history, logs and SCCM logs.
+• Windows servicing information including CBS logs, setupapi logs, servicing registry hives and WinSxS info.
+• Info on Windows files including dll and exe files and listing of files in temp folders.
+• Various keys from the registry including services, network info (including AD and IP address info), activation and drive info.
+• No data files are copied, and no changes are made to the configuration of the system.</t>
+  </si>
+  <si>
+    <t>SetupReport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oleg, Sascha, Leonard </t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/DND/SetupReport/SetupReport.zip?raw=true</t>
   </si>
 </sst>
 </file>
@@ -706,8 +721,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -991,7 +1006,7 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="100" customWidth="1"/>
@@ -1016,7 +1031,7 @@
         <v>43</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="390" x14ac:dyDescent="0.25">
@@ -1024,143 +1039,143 @@
         <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="390" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>64</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="240" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1187,7 +1202,7 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="59.28515625" customWidth="1"/>
     <col min="2" max="2" width="91.28515625" style="5" customWidth="1"/>
@@ -1214,7 +1229,7 @@
         <v>43</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1247,7 +1262,7 @@
         <v>44</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G2">
         <v>9</v>
@@ -1273,13 +1288,13 @@
         <v>35</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>45</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -1311,7 +1326,7 @@
         <v>46</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -1334,7 +1349,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>35</v>
@@ -1346,7 +1361,7 @@
         <v>47</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1361,13 +1376,13 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>48</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1382,13 +1397,13 @@
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>49</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1396,38 +1411,38 @@
     </row>
     <row r="8" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -1447,7 +1462,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1468,61 +1483,61 @@
         <v>51</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>109</v>
-      </c>
       <c r="F12" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1534,13 +1549,13 @@
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>52</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1565,7 +1580,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64.5703125" customWidth="1"/>
@@ -1591,7 +1606,7 @@
         <v>43</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="390" x14ac:dyDescent="0.25">
@@ -1599,107 +1614,107 @@
         <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="300" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>127</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1723,7 +1738,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
     <col min="2" max="2" width="42.42578125" customWidth="1"/>
@@ -1747,61 +1762,61 @@
         <v>43</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>64</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="405" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1823,7 +1838,7 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="58" customWidth="1"/>
   </cols>
@@ -1845,7 +1860,7 @@
         <v>43</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1860,10 +1875,10 @@
         <v>31</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1883,7 +1898,7 @@
         <v>53</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1900,11 +1915,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="59" customWidth="1"/>
@@ -1929,43 +1944,43 @@
         <v>43</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="240" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>131</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>134</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>136</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -1985,7 +2000,7 @@
         <v>54</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2003,12 +2018,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="65.140625" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2029,25 +2045,25 @@
         <v>43</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>31</v>
+        <v>138</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>55</v>
+        <v>139</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -2062,10 +2078,10 @@
         <v>30</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE05D00-674F-408C-9193-9C9CFC590954}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B957AD83-513F-4BB5-83CD-C539C72D0948}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="7" r:id="rId1"/>
@@ -488,12 +488,6 @@
     <t>community</t>
   </si>
   <si>
-    <t>AD_Utils
-Colleciton of useful AD troubleshooting utilities
-1. Guid-Sid-Base64
-Needed when interacting with sid and guid and base64 and text version.</t>
-  </si>
-  <si>
     <t>Marius; Nick</t>
   </si>
   <si>
@@ -582,6 +576,14 @@
   </si>
   <si>
     <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/DND/SetupReport/SetupReport.zip?raw=true</t>
+  </si>
+  <si>
+    <t>AD_Utils
+Colleciton of useful AD troubleshooting utilities
+1. Guid-Sid-Base64
+Needed when interacting with sid and guid and base64 and text version.
+2. Big5ADMonitoringScripts
+Please refer to https://internal.support.services.microsoft.com/en-us/help/3022299</t>
   </si>
 </sst>
 </file>
@@ -721,8 +723,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1006,7 +1008,7 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="100" customWidth="1"/>
@@ -1162,17 +1164,17 @@
     </row>
     <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>57</v>
@@ -1198,11 +1200,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="59.28515625" customWidth="1"/>
     <col min="2" max="2" width="91.28515625" style="5" customWidth="1"/>
@@ -1288,7 +1290,7 @@
         <v>35</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>45</v>
@@ -1376,7 +1378,7 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>48</v>
@@ -1397,7 +1399,7 @@
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>49</v>
@@ -1418,7 +1420,7 @@
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>84</v>
@@ -1436,7 +1438,7 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>80</v>
@@ -1504,12 +1506,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>110</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="6" t="s">
@@ -1524,17 +1526,17 @@
     </row>
     <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>57</v>
@@ -1549,7 +1551,7 @@
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>52</v>
@@ -1580,7 +1582,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64.5703125" customWidth="1"/>
@@ -1665,17 +1667,17 @@
     </row>
     <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>125</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>126</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>57</v>
@@ -1738,7 +1740,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
     <col min="2" max="2" width="42.42578125" customWidth="1"/>
@@ -1838,7 +1840,7 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="58" customWidth="1"/>
   </cols>
@@ -1919,7 +1921,7 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="59" customWidth="1"/>
@@ -1949,17 +1951,17 @@
     </row>
     <row r="2" spans="1:6" ht="240" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>129</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>130</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>57</v>
@@ -1967,17 +1969,17 @@
     </row>
     <row r="3" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>134</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>135</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>57</v>
@@ -2018,11 +2020,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="65.140625" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
@@ -2050,17 +2052,17 @@
     </row>
     <row r="2" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>138</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>139</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>57</v>

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B957AD83-513F-4BB5-83CD-C539C72D0948}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC38E35C-F759-4416-865D-52C6B1C7810E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="144">
   <si>
     <t>Name</t>
   </si>
@@ -584,6 +584,19 @@
 Needed when interacting with sid and guid and base64 and text version.
 2. Big5ADMonitoringScripts
 Please refer to https://internal.support.services.microsoft.com/en-us/help/3022299</t>
+  </si>
+  <si>
+    <t>KB4528577_REGIn order to enable faster and error free implementation of the registry based solution, as described in https://internal.support.services.microsoft.com/en-us/help/4528577, Winodws CSS team provided the relevant zip files.</t>
+  </si>
+  <si>
+    <t>In order to enable faster and error free implementation of the registry based solution, as described in https://internal.support.services.microsoft.com/en-us/help/4528577, Winodws CSS team provided the relevant zip files.
+WARNING: serious problems might occur if you modify the registry incorrectly by using Registry Editor or by using another method. These problems might require you to reinstall the operating system. Microsoft cannot guarantee that these problems can be resolved. Modify the registry at your own risk.</t>
+  </si>
+  <si>
+    <t>Solution</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/ALL/MISC/KB4528577_REG/4528577_REGs.zip?raw=true</t>
   </si>
 </sst>
 </file>
@@ -723,8 +736,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1002,15 +1015,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
     <col min="2" max="2" width="100" customWidth="1"/>
     <col min="5" max="5" width="34.85546875" customWidth="1"/>
     <col min="6" max="6" width="30.5703125" customWidth="1"/>
@@ -1178,6 +1191,24 @@
       </c>
       <c r="F9" s="3" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1190,9 +1221,10 @@
     <hyperlink ref="E9" r:id="rId6" xr:uid="{9EBC21ED-5E28-42F1-A331-70A83C7CEF32}"/>
     <hyperlink ref="E7" r:id="rId7" xr:uid="{3DC632B2-5D6C-4F99-9904-3C15D719544E}"/>
     <hyperlink ref="E8" r:id="rId8" xr:uid="{3EE04AAF-970F-4627-AE33-60A84648E343}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{9CE430D7-66FC-46DA-AD3D-5CE811C347D0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId9"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -1200,11 +1232,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="59.28515625" customWidth="1"/>
     <col min="2" max="2" width="91.28515625" style="5" customWidth="1"/>
@@ -1582,7 +1614,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64.5703125" customWidth="1"/>
@@ -1740,7 +1772,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
     <col min="2" max="2" width="42.42578125" customWidth="1"/>
@@ -1840,7 +1872,7 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="58" customWidth="1"/>
   </cols>
@@ -1921,7 +1953,7 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="59" customWidth="1"/>
@@ -2024,7 +2056,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="65.140625" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC38E35C-F759-4416-865D-52C6B1C7810E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858652D1-5D8D-437F-9C1F-FBD4AF8F4FC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="147">
   <si>
     <t>Name</t>
   </si>
@@ -597,6 +597,15 @@
   </si>
   <si>
     <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/ALL/MISC/KB4528577_REG/4528577_REGs.zip?raw=true</t>
+  </si>
+  <si>
+    <t>AD_GetRemoteToken</t>
+  </si>
+  <si>
+    <t>GetRemoteToken dumps security tokens of AD domain member machines and users on the target/resource machine without knowing the password of client machines or users. GetRemoteToken can be used to dump the token of AD domain member machines and users. It must be executed on domain joined machine. The tool works within a single forest and also over forest trust. GetRemoteToken will display Kerberos claims (if there are any) in token. Output resembles to whoami output (it is intentional), but it does not require interactive logon and knowledge of user's or machine's password.</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/ADS/AD_GetRemoteToken/AD_GetRemoteToken.zip?raw=true</t>
   </si>
 </sst>
 </file>
@@ -1017,7 +1026,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1230,10 +1239,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1592,6 +1601,24 @@
         <v>57</v>
       </c>
     </row>
+    <row r="16" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -1600,9 +1627,10 @@
     <hyperlink ref="E12" r:id="rId4" xr:uid="{CB2EBCE9-9C88-4C66-A386-5AF9858BB15E}"/>
     <hyperlink ref="E13" r:id="rId5" xr:uid="{EC4E02A1-03F3-42DA-A5F5-7E81F2C7714E}"/>
     <hyperlink ref="E14" r:id="rId6" xr:uid="{C7D97BC0-1ECC-4DE5-BCA0-DE00F2348907}"/>
+    <hyperlink ref="E16" r:id="rId7" xr:uid="{3B3A1A78-FE12-44AD-BC50-B9F31B170A4D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858652D1-5D8D-437F-9C1F-FBD4AF8F4FC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1378ED4A-0A86-420D-8962-058F835D674F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="150">
   <si>
     <t>Name</t>
   </si>
@@ -606,6 +606,15 @@
   </si>
   <si>
     <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/ADS/AD_GetRemoteToken/AD_GetRemoteToken.zip?raw=true</t>
+  </si>
+  <si>
+    <t>AD_usnmon</t>
+  </si>
+  <si>
+    <t>Command line tool, needs to be executed in a administrator elevated command prompt. When running it displays file and folder changes from the NTFS Journal for the specified drive. The tools is useful in conjunction with DFSR, to verify if the USN CLOSE statement is appearing in customer environments. The DFSR NTFS Journal consumer reacts only on changes with the CLOSE statement. If these are not committed in time, it can cause a DFSR replication delay. The tool works read only, only presenting object change information, but no content.</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/ADS/AD_usnmon/AD_usnmon.zip?raw=true</t>
   </si>
 </sst>
 </file>
@@ -1239,10 +1248,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1619,6 +1628,24 @@
         <v>57</v>
       </c>
     </row>
+    <row r="17" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -1628,9 +1655,10 @@
     <hyperlink ref="E13" r:id="rId5" xr:uid="{EC4E02A1-03F3-42DA-A5F5-7E81F2C7714E}"/>
     <hyperlink ref="E14" r:id="rId6" xr:uid="{C7D97BC0-1ECC-4DE5-BCA0-DE00F2348907}"/>
     <hyperlink ref="E16" r:id="rId7" xr:uid="{3B3A1A78-FE12-44AD-BC50-B9F31B170A4D}"/>
+    <hyperlink ref="E17" r:id="rId8" xr:uid="{4E649777-4D45-4326-A92A-E9A481BFE847}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1378ED4A-0A86-420D-8962-058F835D674F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5019BD51-764E-48D8-8FEC-A12BC960C536}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="153">
   <si>
     <t>Name</t>
   </si>
@@ -195,9 +195,6 @@
   </si>
   <si>
     <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/PRF/Package2/Package2.zip?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/Package2/Package2.zip?raw=true</t>
   </si>
   <si>
     <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/DND/Package2/Package2.zip?raw=true</t>
@@ -615,6 +612,27 @@
   </si>
   <si>
     <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/ADS/AD_usnmon/AD_usnmon.zip?raw=true</t>
+  </si>
+  <si>
+    <t>GetFarmData</t>
+  </si>
+  <si>
+    <t>The getfarmdata.ps1 script has been created to quickly gather all the basic information about an RDS deployment.
+Example:
+The machines involved and the roles running on them, the collections and all the settings they have.
+It will basically echo all the information about the RDS deployment you would see in server manager (collections, certificates used, collection settings etc…).
+This script is for RDS 2012 and above. It will not work on 2008R2 which does not have the same PowerShell Cmdlets.
+Usage:
+This script has to be ran on the connection broker of the RDS deployment as a domain administrator.
+Ensure you launch the PowerShell console "as administrator".
+When you have several brokers, you will have to run it on the active management broker.
+This script does not change any setting, it just reads the different settings of the deployment.</t>
+  </si>
+  <si>
+    <t>Cédric Naudy</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/GetFarmData/GetFarmData.zip?raw=true</t>
   </si>
 </sst>
 </file>
@@ -754,8 +772,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1039,7 +1057,7 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" customWidth="1"/>
     <col min="2" max="2" width="100" customWidth="1"/>
@@ -1064,7 +1082,7 @@
         <v>43</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="390" x14ac:dyDescent="0.25">
@@ -1072,161 +1090,161 @@
         <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="390" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>63</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="240" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1250,11 +1268,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="59.28515625" customWidth="1"/>
     <col min="2" max="2" width="91.28515625" style="5" customWidth="1"/>
@@ -1281,7 +1299,7 @@
         <v>43</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1314,7 +1332,7 @@
         <v>44</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G2">
         <v>9</v>
@@ -1340,13 +1358,13 @@
         <v>35</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>45</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -1378,7 +1396,7 @@
         <v>46</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -1401,7 +1419,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>35</v>
@@ -1413,7 +1431,7 @@
         <v>47</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1428,13 +1446,13 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>48</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1449,13 +1467,13 @@
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>49</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1463,38 +1481,38 @@
     </row>
     <row r="8" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -1514,7 +1532,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1535,61 +1553,61 @@
         <v>51</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>108</v>
-      </c>
       <c r="F12" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1601,49 +1619,49 @@
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>52</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1670,7 +1688,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64.5703125" customWidth="1"/>
@@ -1696,7 +1714,7 @@
         <v>43</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="390" x14ac:dyDescent="0.25">
@@ -1704,107 +1722,107 @@
         <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="300" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>125</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1828,7 +1846,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
     <col min="2" max="2" width="42.42578125" customWidth="1"/>
@@ -1852,61 +1870,61 @@
         <v>43</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>63</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="405" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1928,7 +1946,7 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="58" customWidth="1"/>
   </cols>
@@ -1950,7 +1968,7 @@
         <v>43</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1965,10 +1983,10 @@
         <v>31</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1988,7 +2006,7 @@
         <v>53</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2005,11 +2023,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="59" customWidth="1"/>
@@ -2034,63 +2052,61 @@
         <v>43</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="240" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>129</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>134</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="270" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>33</v>
+        <v>149</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>33</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>30</v>
+        <v>151</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>54</v>
+        <v>152</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2112,7 +2128,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="65.140625" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
@@ -2135,25 +2151,25 @@
         <v>43</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>138</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -2168,10 +2184,10 @@
         <v>30</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5019BD51-764E-48D8-8FEC-A12BC960C536}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE928C37-BFD5-496C-AD2B-D3C15320D833}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="750" yWindow="255" windowWidth="27375" windowHeight="17025" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="153">
   <si>
     <t>Name</t>
   </si>
@@ -280,31 +280,6 @@
     <t>PKI_CertificateEnrollment_Client script collects client specific certificate enrollment data. It is batch script.  Please note that it will collect only cient side data and that it is highly recommended to run Authentication data collection script in parallel</t>
   </si>
   <si>
-    <t>Hyper-V_Tracing_Using_Channels</t>
-  </si>
-  <si>
-    <t>This script uses the event channels to trace the Hyper-V activity. It can be usefull when a scenario is too long to fit in the VMLTrace buffer
-How it works
-This script will do these actions (by default)
-Sets registry keys for verbose tracing and restart VMMS
-Enables the channels according to the OS version (RS1, RS5) and sets their size to 50 MB
-Waits for key pressed
-Stops &amp; Exports the channels
-Evenutally adds the Hyper-V configuration, ClusDB &amp; Cluster logs
-Compresses everything in a .zip file
-Resets the registry keys to default and restart VMMS
-How to use it
-Run this command as administrator to collect to start the , reproduce the problem and press any key to complete the collection.
-.\Hyper-V_Tracing_Using_Channels.ps1
-To add some configurations use:
--HVConfig: To dump the hyper-v configuration
--FCConfig: To dump the cluster hive
-... other in the Get-help</t>
-  </si>
-  <si>
-    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/SHA/Hyper-V_Tracing_Using_Channels/Hyper-V_Tracing_Using_Channels.zip?raw=true</t>
-  </si>
-  <si>
     <t>Data Collection, Analysis and Troubleshooting</t>
   </si>
   <si>
@@ -633,6 +608,16 @@
   </si>
   <si>
     <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/GetFarmData/GetFarmData.zip?raw=true</t>
+  </si>
+  <si>
+    <t>vm2dmp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purpose: Taking a dump of a VM running on Hyper-V
+</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/SHA/VM2DMP/vm2dmp.zip?raw=true</t>
   </si>
 </sst>
 </file>
@@ -772,8 +757,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1057,7 +1042,7 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" customWidth="1"/>
     <col min="2" max="2" width="100" customWidth="1"/>
@@ -1090,14 +1075,14 @@
         <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>56</v>
@@ -1105,17 +1090,17 @@
     </row>
     <row r="3" spans="1:6" ht="390" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>56</v>
@@ -1136,7 +1121,7 @@
         <v>62</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -1154,7 +1139,7 @@
         <v>63</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="240" x14ac:dyDescent="0.25">
@@ -1162,7 +1147,7 @@
         <v>67</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
@@ -1172,22 +1157,22 @@
         <v>72</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>56</v>
@@ -1195,35 +1180,35 @@
     </row>
     <row r="8" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>103</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E8" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>56</v>
@@ -1231,20 +1216,20 @@
     </row>
     <row r="10" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1272,7 +1257,7 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="59.28515625" customWidth="1"/>
     <col min="2" max="2" width="91.28515625" style="5" customWidth="1"/>
@@ -1358,7 +1343,7 @@
         <v>35</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>45</v>
@@ -1446,7 +1431,7 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>48</v>
@@ -1467,7 +1452,7 @@
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>49</v>
@@ -1481,38 +1466,38 @@
     </row>
     <row r="8" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -1558,17 +1543,17 @@
     </row>
     <row r="12" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>57</v>
@@ -1576,17 +1561,17 @@
     </row>
     <row r="13" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>57</v>
@@ -1594,17 +1579,17 @@
     </row>
     <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>56</v>
@@ -1619,7 +1604,7 @@
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>52</v>
@@ -1630,17 +1615,17 @@
     </row>
     <row r="16" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>56</v>
@@ -1648,17 +1633,17 @@
     </row>
     <row r="17" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>56</v>
@@ -1688,7 +1673,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64.5703125" customWidth="1"/>
@@ -1722,14 +1707,14 @@
         <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>56</v>
@@ -1773,17 +1758,17 @@
     </row>
     <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>56</v>
@@ -1791,17 +1776,17 @@
     </row>
     <row r="6" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>56</v>
@@ -1809,17 +1794,17 @@
     </row>
     <row r="7" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>56</v>
@@ -1842,15 +1827,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="2" width="42.42578125" customWidth="1"/>
-    <col min="5" max="5" width="68.85546875" customWidth="1"/>
+    <col min="2" max="2" width="107.140625" customWidth="1"/>
+    <col min="5" max="5" width="75.28515625" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1888,7 +1874,7 @@
         <v>62</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="150" x14ac:dyDescent="0.25">
@@ -1906,22 +1892,20 @@
         <v>63</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="405" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
-        <v>61</v>
-      </c>
+      <c r="D4" s="6"/>
       <c r="E4" s="11" t="s">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>56</v>
@@ -1931,10 +1915,9 @@
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{62A225A7-437A-4E44-9F0F-485634462A16}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1946,7 +1929,7 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="58" customWidth="1"/>
   </cols>
@@ -2023,11 +2006,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="59" customWidth="1"/>
@@ -2057,17 +2040,17 @@
     </row>
     <row r="2" spans="1:6" ht="240" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>56</v>
@@ -2075,17 +2058,17 @@
     </row>
     <row r="3" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>56</v>
@@ -2093,17 +2076,17 @@
     </row>
     <row r="4" spans="1:6" ht="270" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>56</v>
@@ -2128,7 +2111,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="65.140625" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
@@ -2156,17 +2139,17 @@
     </row>
     <row r="2" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>56</v>

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE928C37-BFD5-496C-AD2B-D3C15320D833}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24548A5E-7324-4F0C-B5F5-B31CEF94022C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="255" windowWidth="27375" windowHeight="17025" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="1035" windowWidth="28215" windowHeight="15735" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="157">
   <si>
     <t>Name</t>
   </si>
@@ -613,11 +613,47 @@
     <t>vm2dmp</t>
   </si>
   <si>
-    <t xml:space="preserve">Purpose: Taking a dump of a VM running on Hyper-V
-</t>
-  </si>
-  <si>
     <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/SHA/VM2DMP/vm2dmp.zip?raw=true</t>
+  </si>
+  <si>
+    <t>Hyper-V_Tracing_Using_Channels</t>
+  </si>
+  <si>
+    <t>This script uses the event channels to trace the Hyper-V activity. 
+It can be usefull when a scenario is too long to fit in the VMLTrace buffer
+How it works
+This script will do these actions (by default)
+Sets registry keys for verbose tracing and restart VMMS
+Enables the channels according to the OS version (RS1, RS5) and sets their size to 50 MB
+Waits for key pressed
+Stops &amp; Exports the channels
+Evenutally adds the Hyper-V configuration, ClusDB &amp; Cluster logs
+Compresses everything in a .zip file
+Resets the registry keys to default and restart VMMS
+How to use it
+Run this command as administrator to collect to start the , reproduce the problem and press any key to complete the collection.
+.\Hyper-V_Tracing_Using_Channels.ps1
+To add some configurations use:
+-HVConfig: To dump the hyper-v configuration
+-FCConfig: To dump the cluster hive
+... other in the Get-help</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+sergeg</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/SHA/Hyper-V_Tracing_Using_Channels/Hyper-V_Tracing_Using_Channels.zip?raw=true</t>
+  </si>
+  <si>
+    <t>Purpose: 
+Taking a dump of a VM running on Hyper-V
+Usage example:
+vm2dmp -vmrs "C:\path\Virtual Machines\EF774ADC-F2E5-4BE2-8864-772CA2659594.VMRS" -dmp C:\temp\test-vm.dmp
+Reference: 
+https://blogs.technet.microsoft.com/hugofe/2010/04/05/microsoft-hyper-v-vm-state-to-memory-dump-converter/
+Alternate method to force Crash VM from HyperV host: 
+Debug-VM -Name "VM Name" -InjectNonMaskableInterrupt -ComputerName Hostname</t>
   </si>
 </sst>
 </file>
@@ -1825,18 +1861,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="2" width="107.140625" customWidth="1"/>
-    <col min="5" max="5" width="75.28515625" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="36.5703125" customWidth="1"/>
+    <col min="2" max="2" width="119.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="77.140625" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1859,7 +1897,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>58</v>
       </c>
@@ -1895,19 +1933,37 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="327" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="234.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1915,9 +1971,11 @@
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{A409CFB4-8861-4EDF-83F2-7EC982978C7C}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{9F94F2E5-8767-4F52-9EEF-AC692ECF310F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24548A5E-7324-4F0C-B5F5-B31CEF94022C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7209AB19-FA83-4047-939E-965458B50D32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="1035" windowWidth="28215" windowHeight="15735" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="7" r:id="rId1"/>
@@ -613,9 +613,6 @@
     <t>vm2dmp</t>
   </si>
   <si>
-    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/SHA/VM2DMP/vm2dmp.zip?raw=true</t>
-  </si>
-  <si>
     <t>Hyper-V_Tracing_Using_Channels</t>
   </si>
   <si>
@@ -654,6 +651,9 @@
 https://blogs.technet.microsoft.com/hugofe/2010/04/05/microsoft-hyper-v-vm-state-to-memory-dump-converter/
 Alternate method to force Crash VM from HyperV host: 
 Debug-VM -Name "VM Name" -InjectNonMaskableInterrupt -ComputerName Hostname</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/SHA/vm2dmp/vm2dmp.zip?raw=true</t>
   </si>
 </sst>
 </file>
@@ -793,8 +793,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1078,7 +1078,7 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" customWidth="1"/>
     <col min="2" max="2" width="100" customWidth="1"/>
@@ -1293,7 +1293,7 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="59.28515625" customWidth="1"/>
     <col min="2" max="2" width="91.28515625" style="5" customWidth="1"/>
@@ -1709,7 +1709,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64.5703125" customWidth="1"/>
@@ -1867,7 +1867,7 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.5703125" customWidth="1"/>
     <col min="2" max="2" width="119.28515625" customWidth="1"/>
@@ -1897,7 +1897,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>58</v>
       </c>
@@ -1935,17 +1935,17 @@
     </row>
     <row r="4" spans="1:6" ht="327" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>154</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>155</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>56</v>
@@ -1956,12 +1956,12 @@
         <v>150</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="11" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>56</v>
@@ -1987,7 +1987,7 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="58" customWidth="1"/>
   </cols>
@@ -2068,7 +2068,7 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="59" customWidth="1"/>
@@ -2169,7 +2169,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="65.140625" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7209AB19-FA83-4047-939E-965458B50D32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5859392-6DCD-4D5F-8DA6-89D715CDBF9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="450" yWindow="810" windowWidth="27285" windowHeight="15915" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="160">
   <si>
     <t>Name</t>
   </si>
@@ -654,6 +654,20 @@
   </si>
   <si>
     <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/SHA/vm2dmp/vm2dmp.zip?raw=true</t>
+  </si>
+  <si>
+    <t>StorPortPacman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purpose: 
+StorportPacman is a tool written for the quick processing of Storport ETL traces into a format that is easily understood by engineers and customers. It has saved people hours of trouble. 
+It is highly customizable via the Excel spreadsheets included.
+Deciphering Storport Traces 101 
+https://blogs.technet.microsoft.com/askcore/2014/08/19/deciphering-storport-traces-101/
+</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/SHA/StorPortPacman/StorPortPacman.zip?raw=true</t>
   </si>
 </sst>
 </file>
@@ -793,8 +807,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1078,7 +1092,7 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" customWidth="1"/>
     <col min="2" max="2" width="100" customWidth="1"/>
@@ -1293,7 +1307,7 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="59.28515625" customWidth="1"/>
     <col min="2" max="2" width="91.28515625" style="5" customWidth="1"/>
@@ -1709,7 +1723,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64.5703125" customWidth="1"/>
@@ -1861,13 +1875,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.5703125" customWidth="1"/>
     <col min="2" max="2" width="119.28515625" customWidth="1"/>
@@ -1965,6 +1979,22 @@
       </c>
       <c r="F5" s="3" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="234.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1987,7 +2017,7 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="58" customWidth="1"/>
   </cols>
@@ -2068,7 +2098,7 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="59" customWidth="1"/>
@@ -2169,7 +2199,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="65.140625" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5859392-6DCD-4D5F-8DA6-89D715CDBF9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5352FD-FABC-4D82-82E3-8DF3D4612CEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="810" windowWidth="27285" windowHeight="15915" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28245" yWindow="945" windowWidth="28065" windowHeight="15765" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="163">
   <si>
     <t>Name</t>
   </si>
@@ -668,6 +668,38 @@
   </si>
   <si>
     <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/SHA/StorPortPacman/StorPortPacman.zip?raw=true</t>
+  </si>
+  <si>
+    <t>ClusterHiveReaderFromClusterLog.ps1</t>
+  </si>
+  <si>
+    <t>Purpose: 
+# SYNOPSIS ClusterHiveReaderFromClusterLog.ps1
+    The script Reads the Header Lines from a Server 2016 or later cluster.log and creates config files
+    Script Name:  ClusterHiveReaderFromClusterLog.ps1    	
+    Version:      1.1
+    Last Update:  12 Feb 2020
+    Author:       Josef Holzer 
+## DESCRIPTION
+    In 2016 and later we store all Configuration Info on top of the Cluster Log in csv format
+    The script reads the header of the cluster.log file and creates the following files:    
+    ClusterLogName-ClusConfig-All.txt             # Contains all Info Exported as AllObjects  fl *
+    ClusterLogName-ClusConfig-All.xml             # Contains all Info as Powershell Objects
+    ClusterLogName-ClusConfig-All-Overview.txt    # Contains most important info as | ft Prop1, Prop2...
+    ClusterLogName-ClusConfig-ProcessIDs.txt      # All PIDs of Processes that wrote to cluster log
+EXAMPLE 1
+     ClusterHiveReaderFromClusterLog.ps1    
+    - if you have several cluster logs in c:\logs and copy the script to this folder
+       you simply run the script with no parameters
+    - it will then take the first (2016 or later ) 
+      cluster.log that contains config data and processes it
+EXAMPLE 2
+    ClusterHiveReaderFromClusterLog.ps1 -Path "C:\ClusterLog\H19N1.H19Corp.com_cluster.log" `
+    -FileWithProcessInfoPathFull "C:\ClusterLog\H19N1-GeneralInfoPerHost.xml" -FindPIDs $True
+    ...it will read cluster configuration and write it down into file names mentioned above including *ProcessIDs</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/SHA/ClusterHiveReaderFromClusterLog/ClusterHiveReaderFromClusterLog.zip?raw=true</t>
   </si>
 </sst>
 </file>
@@ -1875,10 +1907,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1997,15 +2029,32 @@
         <v>86</v>
       </c>
     </row>
+    <row r="7" spans="1:6" ht="234.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
     <hyperlink ref="E4" r:id="rId3" xr:uid="{A409CFB4-8861-4EDF-83F2-7EC982978C7C}"/>
     <hyperlink ref="E5" r:id="rId4" xr:uid="{9F94F2E5-8767-4F52-9EEF-AC692ECF310F}"/>
+    <hyperlink ref="E7" r:id="rId5" xr:uid="{88B198AD-A8B9-4F55-9F69-56BB5E1EE4C5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5352FD-FABC-4D82-82E3-8DF3D4612CEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2CF564-DB0C-4E23-BA9E-0E6F9FB893A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28245" yWindow="945" windowWidth="28065" windowHeight="15765" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="178">
   <si>
     <t>Name</t>
   </si>
@@ -700,6 +700,55 @@
   </si>
   <si>
     <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/SHA/ClusterHiveReaderFromClusterLog/ClusterHiveReaderFromClusterLog.zip?raw=true</t>
+  </si>
+  <si>
+    <t>DSC-Collect</t>
+  </si>
+  <si>
+    <t>PowerShell script to simplify the collection of DSC (Desired State Configuration) troubleshooting data.</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/Desired_State_Configuration/DSC-Collect.zip?raw=true</t>
+  </si>
+  <si>
+    <t>Evt-Collect</t>
+  </si>
+  <si>
+    <t>PowerShell script to simplify the collection of data related to EventLog troubleshooting and make our action plans easier.​</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/EventLog/Evt-Collect.zip?raw=true</t>
+  </si>
+  <si>
+    <t>Sched-Collect</t>
+  </si>
+  <si>
+    <t>PowerShell script to simplify the collection of data related to Task Scheduler troubleshooting and make our action plans easier.</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/Task_Scheduler/Sched-Collect.zip?raw=true</t>
+  </si>
+  <si>
+    <t>WMI</t>
+  </si>
+  <si>
+    <t>WMI-Report: PowerShell script that inspects the content of a WMI repository
+WMI-Collect: PowerShell script that collects WMI relevant data</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/WMI/WMI-Report.zip?raw=true
+https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/WMI/WMI-Collect.zip?raw=true</t>
+  </si>
+  <si>
+    <t>WinRM</t>
+  </si>
+  <si>
+    <t>WinRM-Collect: PowerShell script to simplify the collection of WinRM and EventLog Forwarding troubleshooting data and make our action plans easier.
+WinRM-Diag: PowerShell script that inspects the WinRM configuration and tries to identify common issues.</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/WinRM/WinRM-Collect.zip?raw=true
+https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/WinRM/WinRM-Diag.zip?raw=true</t>
   </si>
 </sst>
 </file>
@@ -839,8 +888,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1124,7 +1173,7 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" customWidth="1"/>
     <col min="2" max="2" width="100" customWidth="1"/>
@@ -1339,7 +1388,7 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="59.28515625" customWidth="1"/>
     <col min="2" max="2" width="91.28515625" style="5" customWidth="1"/>
@@ -1755,7 +1804,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64.5703125" customWidth="1"/>
@@ -1909,11 +1958,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.5703125" customWidth="1"/>
     <col min="2" max="2" width="119.28515625" customWidth="1"/>
@@ -2066,7 +2115,7 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="58" customWidth="1"/>
   </cols>
@@ -2141,13 +2190,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="59" customWidth="1"/>
@@ -2229,14 +2278,109 @@
         <v>56</v>
       </c>
     </row>
+    <row r="5" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="270" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
     <hyperlink ref="E2" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
     <hyperlink ref="E4" r:id="rId3" xr:uid="{777CBDDE-1A1E-404E-9D00-7F4113894C95}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{C4372465-92F8-4B6D-B622-F870635B66EF}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{F8D3BCE4-9CF0-450A-9D11-402B8A0468F5}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{9A1DB91A-6547-4DA8-8EC0-B699AB3318C0}"/>
+    <hyperlink ref="E8" r:id="rId7" display="https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/WMI-Collect/WMI-Collect.zip?raw=true" xr:uid="{25497EC0-956A-4C27-8920-6C36A5988903}"/>
+    <hyperlink ref="E9" r:id="rId8" display="https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/WMI-Collect/WMI-Collect.zip?raw=true" xr:uid="{E30A40E0-D4AE-4049-BEBB-A967B83D0710}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -2248,7 +2392,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="65.140625" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2CF564-DB0C-4E23-BA9E-0E6F9FB893A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B068E9B-2618-44DD-B624-31D2CB514354}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="176">
   <si>
     <t>Name</t>
   </si>
@@ -122,18 +122,9 @@
     <t>Use this data collection scripts to collect idna trace of lsass.exe (local security authority subsystem) process. Please note that you will need local admin rights to do this operation. Detailed usage of this data collection script is available in package download</t>
   </si>
   <si>
-    <t>Test Description 1</t>
-  </si>
-  <si>
     <t>SME2</t>
   </si>
   <si>
-    <t>SME1</t>
-  </si>
-  <si>
-    <t>Package1</t>
-  </si>
-  <si>
     <t>Package2</t>
   </si>
   <si>
@@ -192,9 +183,6 @@
   </si>
   <si>
     <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/ADS/IDNA_LSASS/IDNA_LSASS.zip?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/PRF/Package2/Package2.zip?raw=true</t>
   </si>
   <si>
     <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/DND/Package2/Package2.zip?raw=true</t>
@@ -269,9 +257,6 @@
   </si>
   <si>
     <t xml:space="preserve">The purpose of this tool is following...when you collect several event logs from a server and you don't know yet what to look for, and can be tedious to load all of </t>
-  </si>
-  <si>
-    <t>\\dummymachine\dummyinternalshare\Package1.zip</t>
   </si>
   <si>
     <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/ALL/psSDP/psSDP-offline.zip?raw=true</t>
@@ -749,6 +734,15 @@
   <si>
     <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/WinRM/WinRM-Collect.zip?raw=true
 https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/WinRM/WinRM-Diag.zip?raw=true</t>
+  </si>
+  <si>
+    <t>Perf-Collect</t>
+  </si>
+  <si>
+    <t>PowerShell script to simplify the collection of Performance Counters data and make our action plans easier.​</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/PRF/Perfomance_Counters/Perf-Collect.zip?raw=true</t>
   </si>
 </sst>
 </file>
@@ -1195,172 +1189,172 @@
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="390" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="390" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="240" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="6" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="6" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1412,10 +1406,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1435,20 +1429,20 @@
     </row>
     <row r="2" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G2">
         <v>9</v>
@@ -1471,16 +1465,16 @@
         <v>12</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -1503,16 +1497,16 @@
         <v>14</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -1535,19 +1529,19 @@
         <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1562,13 +1556,13 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1583,13 +1577,13 @@
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1597,38 +1591,38 @@
     </row>
     <row r="8" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -1639,16 +1633,16 @@
         <v>26</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1663,67 +1657,67 @@
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="6" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1735,49 +1729,49 @@
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1827,118 +1821,118 @@
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="390" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="300" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1986,112 +1980,112 @@
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="327" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="234.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="11" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="234.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="11" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="234.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="11" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2109,10 +2103,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2134,57 +2128,36 @@
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="255" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>71</v>
+        <v>175</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2192,7 +2165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
@@ -2218,154 +2191,154 @@
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="240" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="270" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="240" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="270" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2412,46 +2385,46 @@
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B068E9B-2618-44DD-B624-31D2CB514354}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3D4C0D-1736-46B0-A461-FFEF1648DCFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="24585" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="180">
   <si>
     <t>Name</t>
   </si>
@@ -743,6 +743,25 @@
   </si>
   <si>
     <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/PRF/Perfomance_Counters/Perf-Collect.zip?raw=true</t>
+  </si>
+  <si>
+    <t>DNS_SUFFIX_RESET</t>
+  </si>
+  <si>
+    <t>When connected to MSFTVPN, I cannot access internal resources like HRWeb, RAMWeb, or others. What should I do?
+​​	To be able to reach internal resources like those mentioned above, follow the steps below.
+	- To resolve this issue, you'll need to run a script on the device. To get started, double-click on DNS_SUFFIX_RESET.EXE. 
+	- You will be prompted to run the script. Select Run.
+	- You will be asked for confirmation to proceed. Select Yes.
+	- The script will then run to completion. Once the script is complete, press any key to close the window.
+	- If you are still unable to access internal resources, please contact the Helpdesk and inform them that you have followed the steps above. 
+	  Ask them to escalate this issue. Please DO NOT complete the steps above f​or a second time.</t>
+  </si>
+  <si>
+    <t>StefanG</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/ALL/MISC/DNS_SUFFIX_RESET.zip?raw=true</t>
   </si>
 </sst>
 </file>
@@ -882,8 +901,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1161,15 +1180,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
     <col min="2" max="2" width="100" customWidth="1"/>
     <col min="5" max="5" width="34.85546875" customWidth="1"/>
     <col min="6" max="6" width="30.5703125" customWidth="1"/>
@@ -1354,6 +1373,24 @@
         <v>134</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1382,7 +1419,7 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="59.28515625" customWidth="1"/>
     <col min="2" max="2" width="91.28515625" style="5" customWidth="1"/>
@@ -1798,7 +1835,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64.5703125" customWidth="1"/>
@@ -1956,7 +1993,7 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.5703125" customWidth="1"/>
     <col min="2" max="2" width="119.28515625" customWidth="1"/>
@@ -2105,11 +2142,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="58" customWidth="1"/>
   </cols>
@@ -2169,7 +2206,7 @@
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="59" customWidth="1"/>
@@ -2365,7 +2402,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="65.140625" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3D4C0D-1736-46B0-A461-FFEF1648DCFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2E69CE-ADEF-44F0-9CD6-FD8557180D45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="24585" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="7" r:id="rId1"/>
@@ -342,9 +342,6 @@
   </si>
   <si>
     <t>Analysis and Troubleshooting</t>
-  </si>
-  <si>
-    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/NET/NetworkMonitor_Parsers_03_04_2978_x64/NetworkMonitor_Parsers_03_04_2978_x64.zip?raw=true</t>
   </si>
   <si>
     <t>NetMon Parser</t>
@@ -762,6 +759,9 @@
   </si>
   <si>
     <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/ALL/MISC/DNS_SUFFIX_RESET.zip?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/NET/NetworkMonitor_Parsers_Internal_03_04_2990/NetworkMonitor_Parsers_Internal_03_04_2990.zip?raw=true</t>
   </si>
 </sst>
 </file>
@@ -901,8 +901,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1182,11 +1182,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
     <col min="2" max="2" width="100" customWidth="1"/>
@@ -1219,7 +1219,7 @@
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
@@ -1237,7 +1237,7 @@
         <v>79</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
@@ -1306,17 +1306,17 @@
     </row>
     <row r="7" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>52</v>
@@ -1324,35 +1324,35 @@
     </row>
     <row r="8" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>52</v>
@@ -1360,38 +1360,38 @@
     </row>
     <row r="10" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>179</v>
-      </c>
       <c r="F11" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1419,7 +1419,7 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="59.28515625" customWidth="1"/>
     <col min="2" max="2" width="91.28515625" style="5" customWidth="1"/>
@@ -1505,7 +1505,7 @@
         <v>32</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>42</v>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>45</v>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>46</v>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>75</v>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>71</v>
@@ -1705,17 +1705,17 @@
     </row>
     <row r="12" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>98</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>99</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>53</v>
@@ -1723,17 +1723,17 @@
     </row>
     <row r="13" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>53</v>
@@ -1741,17 +1741,17 @@
     </row>
     <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>106</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>52</v>
@@ -1766,7 +1766,7 @@
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>49</v>
@@ -1777,17 +1777,17 @@
     </row>
     <row r="16" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>136</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>52</v>
@@ -1795,17 +1795,17 @@
     </row>
     <row r="17" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>52</v>
@@ -1831,11 +1831,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64.5703125" customWidth="1"/>
@@ -1920,17 +1920,17 @@
     </row>
     <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>116</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>52</v>
@@ -1938,17 +1938,17 @@
     </row>
     <row r="6" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>82</v>
+        <v>179</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>52</v>
@@ -1956,17 +1956,17 @@
     </row>
     <row r="7" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>52</v>
@@ -1993,7 +1993,7 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.5703125" customWidth="1"/>
     <col min="2" max="2" width="119.28515625" customWidth="1"/>
@@ -2061,17 +2061,17 @@
     </row>
     <row r="4" spans="1:6" ht="327" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>147</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>148</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>149</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>52</v>
@@ -2079,15 +2079,15 @@
     </row>
     <row r="5" spans="1:6" ht="234.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>52</v>
@@ -2095,15 +2095,15 @@
     </row>
     <row r="6" spans="1:6" ht="234.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>81</v>
@@ -2111,15 +2111,15 @@
     </row>
     <row r="7" spans="1:6" ht="234.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>81</v>
@@ -2146,7 +2146,7 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="58" customWidth="1"/>
   </cols>
@@ -2173,17 +2173,17 @@
     </row>
     <row r="2" spans="1:6" ht="255" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>52</v>
@@ -2206,7 +2206,7 @@
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="59" customWidth="1"/>
@@ -2236,17 +2236,17 @@
     </row>
     <row r="2" spans="1:6" ht="240" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>119</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>120</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>52</v>
@@ -2254,17 +2254,17 @@
     </row>
     <row r="3" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>124</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>125</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>52</v>
@@ -2272,17 +2272,17 @@
     </row>
     <row r="4" spans="1:6" ht="270" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>143</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>144</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>52</v>
@@ -2290,17 +2290,17 @@
     </row>
     <row r="5" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>52</v>
@@ -2308,17 +2308,17 @@
     </row>
     <row r="6" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>52</v>
@@ -2326,17 +2326,17 @@
     </row>
     <row r="7" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>165</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>52</v>
@@ -2344,17 +2344,17 @@
     </row>
     <row r="8" spans="1:6" ht="240" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>52</v>
@@ -2362,17 +2362,17 @@
     </row>
     <row r="9" spans="1:6" ht="270" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>52</v>
@@ -2402,7 +2402,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="65.140625" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
@@ -2430,17 +2430,17 @@
     </row>
     <row r="2" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>128</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>129</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>52</v>

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2E69CE-ADEF-44F0-9CD6-FD8557180D45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA56CF4-0F7F-43DD-9C88-76E5D8480AE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="7" r:id="rId1"/>
@@ -156,9 +156,6 @@
   </si>
   <si>
     <t>DownloadPath</t>
-  </si>
-  <si>
-    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/ADS/AUTH/AUTH.zip?raw=true</t>
   </si>
   <si>
     <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/ADS/PKI_CA/PKI_CA.zip?raw=true</t>
@@ -762,6 +759,9 @@
   </si>
   <si>
     <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/NET/NetworkMonitor_Parsers_Internal_03_04_2990/NetworkMonitor_Parsers_Internal_03_04_2990.zip?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/ADS/AUTH.zip?raw=true</t>
   </si>
 </sst>
 </file>
@@ -1211,7 +1211,7 @@
         <v>40</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="390" x14ac:dyDescent="0.25">
@@ -1219,179 +1219,179 @@
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="390" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="240" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>176</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>178</v>
-      </c>
       <c r="F11" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1415,8 +1415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1446,7 +1446,7 @@
         <v>40</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1464,7 +1464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>32</v>
       </c>
@@ -1475,11 +1475,11 @@
       <c r="D2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>41</v>
+      <c r="E2" s="11" t="s">
+        <v>179</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G2">
         <v>9</v>
@@ -1505,13 +1505,13 @@
         <v>32</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -1540,10 +1540,10 @@
         <v>36</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -1566,7 +1566,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>32</v>
@@ -1575,10 +1575,10 @@
         <v>37</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1593,13 +1593,13 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1614,13 +1614,13 @@
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1628,38 +1628,38 @@
     </row>
     <row r="8" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -1676,10 +1676,10 @@
         <v>38</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1697,64 +1697,64 @@
         <v>39</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>98</v>
-      </c>
       <c r="F12" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1766,49 +1766,49 @@
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>138</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1821,9 +1821,10 @@
     <hyperlink ref="E14" r:id="rId6" xr:uid="{C7D97BC0-1ECC-4DE5-BCA0-DE00F2348907}"/>
     <hyperlink ref="E16" r:id="rId7" xr:uid="{3B3A1A78-FE12-44AD-BC50-B9F31B170A4D}"/>
     <hyperlink ref="E17" r:id="rId8" xr:uid="{4E649777-4D45-4326-A92A-E9A481BFE847}"/>
+    <hyperlink ref="E2" r:id="rId9" xr:uid="{2456CD6B-AEAB-4A1D-A2CF-C48240CAE1BC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -1831,7 +1832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1861,7 +1862,7 @@
         <v>40</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="390" x14ac:dyDescent="0.25">
@@ -1869,107 +1870,107 @@
         <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="300" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>115</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2020,109 +2021,109 @@
         <v>40</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="327" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>148</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="234.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="234.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="234.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2168,25 +2169,25 @@
         <v>40</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="255" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>173</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2231,151 +2232,151 @@
         <v>40</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="240" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>119</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>124</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="270" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>143</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>158</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="240" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="270" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2425,25 +2426,25 @@
         <v>40</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>128</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -2458,10 +2459,10 @@
         <v>29</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA56CF4-0F7F-43DD-9C88-76E5D8480AE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B18CF8D-8F2E-4FB0-BEA2-247D4D428EEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="765" yWindow="8550" windowWidth="21600" windowHeight="11535" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="7" r:id="rId1"/>
@@ -761,7 +761,7 @@
     <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/NET/NetworkMonitor_Parsers_Internal_03_04_2990/NetworkMonitor_Parsers_Internal_03_04_2990.zip?raw=true</t>
   </si>
   <si>
-    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/ADS/AUTH.zip?raw=true</t>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/ADS/AUTH/Auth.zip?raw=true</t>
   </si>
 </sst>
 </file>
@@ -1415,8 +1415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B18CF8D-8F2E-4FB0-BEA2-247D4D428EEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FAA18CA-0765-4504-99EC-07670EB20A12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="8550" windowWidth="21600" windowHeight="11535" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3165" yWindow="30" windowWidth="24555" windowHeight="16650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="185">
   <si>
     <t>Name</t>
   </si>
@@ -762,6 +762,31 @@
   </si>
   <si>
     <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/ADS/AUTH/Auth.zip?raw=true</t>
+  </si>
+  <si>
+    <t>shacollector.bat</t>
+  </si>
+  <si>
+    <t>Purpose: 
+# SYNOPSIS shacollector
+    Script Name: shacollector.bat
+    Purpose:     collect support information logs related to SHA Area. 
+    Version:     5.2
+    Last Update: 7th May 2020
+    Author:      Koji Ishida
+    Email-Alias: kojii
+## DESCRIPTION
+shacollector is a tool that makes it easy to collect data for problem solving which is included in trace logs (ETW), 
+performance logs (perfmon or xperf), event logs and a lot of status information related to SHA area (Storage, Cluster and Hyper-V).</t>
+  </si>
+  <si>
+    <t>josefh</t>
+  </si>
+  <si>
+    <t>kojii</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/SHA/ShaCollector/shacollector.zip?raw=true</t>
   </si>
 </sst>
 </file>
@@ -901,8 +926,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1186,7 +1211,7 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
     <col min="2" max="2" width="100" customWidth="1"/>
@@ -1415,11 +1440,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="C17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="59.28515625" customWidth="1"/>
     <col min="2" max="2" width="91.28515625" style="5" customWidth="1"/>
@@ -1836,7 +1861,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64.5703125" customWidth="1"/>
@@ -1988,13 +2013,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.5703125" customWidth="1"/>
     <col min="2" max="2" width="119.28515625" customWidth="1"/>
@@ -2118,11 +2143,31 @@
         <v>154</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>182</v>
+      </c>
       <c r="E7" s="11" t="s">
         <v>155</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="234.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2133,9 +2178,10 @@
     <hyperlink ref="E4" r:id="rId3" xr:uid="{A409CFB4-8861-4EDF-83F2-7EC982978C7C}"/>
     <hyperlink ref="E5" r:id="rId4" xr:uid="{9F94F2E5-8767-4F52-9EEF-AC692ECF310F}"/>
     <hyperlink ref="E7" r:id="rId5" xr:uid="{88B198AD-A8B9-4F55-9F69-56BB5E1EE4C5}"/>
+    <hyperlink ref="E8" r:id="rId6" xr:uid="{43AAB442-7721-4CB0-AF55-6B53E5F6143F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -2147,7 +2193,7 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="58" customWidth="1"/>
   </cols>
@@ -2207,7 +2253,7 @@
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="59" customWidth="1"/>
@@ -2403,7 +2449,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="65.140625" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FAA18CA-0765-4504-99EC-07670EB20A12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF05159B-3E3C-488B-9AAA-038ECC4AEFA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3165" yWindow="30" windowWidth="24555" windowHeight="16650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -767,26 +767,26 @@
     <t>shacollector.bat</t>
   </si>
   <si>
+    <t>josefh</t>
+  </si>
+  <si>
+    <t>kojii</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/SHA/ShaCollector/shacollector.zip?raw=true</t>
+  </si>
+  <si>
     <t>Purpose: 
 # SYNOPSIS shacollector
     Script Name: shacollector.bat
     Purpose:     collect support information logs related to SHA Area. 
-    Version:     5.2
-    Last Update: 7th May 2020
+    Version:     5.3
+    Last Update: 11th May 2020
     Author:      Koji Ishida
     Email-Alias: kojii
 ## DESCRIPTION
 shacollector is a tool that makes it easy to collect data for problem solving which is included in trace logs (ETW), 
 performance logs (perfmon or xperf), event logs and a lot of status information related to SHA area (Storage, Cluster and Hyper-V).</t>
-  </si>
-  <si>
-    <t>josefh</t>
-  </si>
-  <si>
-    <t>kojii</t>
-  </si>
-  <si>
-    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/SHA/ShaCollector/shacollector.zip?raw=true</t>
   </si>
 </sst>
 </file>
@@ -2016,7 +2016,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2144,7 +2144,7 @@
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>155</v>
@@ -2158,14 +2158,14 @@
         <v>180</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>183</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>184</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>80</v>

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF05159B-3E3C-488B-9AAA-038ECC4AEFA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2896EC8E-F95B-4DF8-8A62-215A8164C844}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3165" yWindow="30" windowWidth="24555" windowHeight="16650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="187">
   <si>
     <t>Name</t>
   </si>
@@ -787,6 +787,12 @@
 ## DESCRIPTION
 shacollector is a tool that makes it easy to collect data for problem solving which is included in trace logs (ETW), 
 performance logs (perfmon or xperf), event logs and a lot of status information related to SHA area (Storage, Cluster and Hyper-V).</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/ADS/SetupReport/SetupReport.zip?raw=true</t>
+  </si>
+  <si>
+    <t>SetupReprot description</t>
   </si>
 </sst>
 </file>
@@ -926,8 +932,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1211,7 +1217,7 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
     <col min="2" max="2" width="100" customWidth="1"/>
@@ -1438,13 +1444,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="C17" sqref="A17:XFD17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="59.28515625" customWidth="1"/>
     <col min="2" max="2" width="91.28515625" style="5" customWidth="1"/>
@@ -1836,6 +1842,24 @@
         <v>51</v>
       </c>
     </row>
+    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -1847,9 +1871,10 @@
     <hyperlink ref="E16" r:id="rId7" xr:uid="{3B3A1A78-FE12-44AD-BC50-B9F31B170A4D}"/>
     <hyperlink ref="E17" r:id="rId8" xr:uid="{4E649777-4D45-4326-A92A-E9A481BFE847}"/>
     <hyperlink ref="E2" r:id="rId9" xr:uid="{2456CD6B-AEAB-4A1D-A2CF-C48240CAE1BC}"/>
+    <hyperlink ref="E18" r:id="rId10" xr:uid="{74D5C6DD-4AB9-4EBC-99FD-771C562A0C23}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -1861,7 +1886,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64.5703125" customWidth="1"/>
@@ -2015,11 +2040,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.5703125" customWidth="1"/>
     <col min="2" max="2" width="119.28515625" customWidth="1"/>
@@ -2193,7 +2218,7 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="58" customWidth="1"/>
   </cols>
@@ -2253,7 +2278,7 @@
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="59" customWidth="1"/>
@@ -2449,7 +2474,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="65.140625" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2896EC8E-F95B-4DF8-8A62-215A8164C844}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D706427-D50F-4969-B4A9-E859561D37F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4365" yWindow="2055" windowWidth="21600" windowHeight="11535" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="185">
   <si>
     <t>Name</t>
   </si>
@@ -787,12 +787,6 @@
 ## DESCRIPTION
 shacollector is a tool that makes it easy to collect data for problem solving which is included in trace logs (ETW), 
 performance logs (perfmon or xperf), event logs and a lot of status information related to SHA area (Storage, Cluster and Hyper-V).</t>
-  </si>
-  <si>
-    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/ADS/SetupReport/SetupReport.zip?raw=true</t>
-  </si>
-  <si>
-    <t>SetupReprot description</t>
   </si>
 </sst>
 </file>
@@ -1444,10 +1438,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1842,24 +1836,6 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -1871,10 +1847,9 @@
     <hyperlink ref="E16" r:id="rId7" xr:uid="{3B3A1A78-FE12-44AD-BC50-B9F31B170A4D}"/>
     <hyperlink ref="E17" r:id="rId8" xr:uid="{4E649777-4D45-4326-A92A-E9A481BFE847}"/>
     <hyperlink ref="E2" r:id="rId9" xr:uid="{2456CD6B-AEAB-4A1D-A2CF-C48240CAE1BC}"/>
-    <hyperlink ref="E18" r:id="rId10" xr:uid="{74D5C6DD-4AB9-4EBC-99FD-771C562A0C23}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D706427-D50F-4969-B4A9-E859561D37F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4287BC3-6C02-4EC6-9973-1EB9D121436D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4365" yWindow="2055" windowWidth="21600" windowHeight="11535" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="189">
   <si>
     <t>Name</t>
   </si>
@@ -787,6 +787,19 @@
 ## DESCRIPTION
 shacollector is a tool that makes it easy to collect data for problem solving which is included in trace logs (ETW), 
 performance logs (perfmon or xperf), event logs and a lot of status information related to SHA area (Storage, Cluster and Hyper-V).</t>
+  </si>
+  <si>
+    <t>UXTrace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryutaro Hayashi </t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/UXTrace/UXTrace.ps1?raw=true
+https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/WinRM/WinRM-Diag.zip?raw=true</t>
+  </si>
+  <si>
+    <t>UXTrace is a uniformed tool to collect traces and logs in customer environment. You can collect all diagnostic traces below at the same time and flexibly. It allows to capture "Logman" traces (mostly for main UEX components) , WPR, Procmon, Netsh,TTD,Recorder</t>
   </si>
 </sst>
 </file>
@@ -889,7 +902,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -924,10 +937,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1211,7 +1230,7 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
     <col min="2" max="2" width="100" customWidth="1"/>
@@ -1440,11 +1459,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="59.28515625" customWidth="1"/>
     <col min="2" max="2" width="91.28515625" style="5" customWidth="1"/>
@@ -1861,7 +1880,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64.5703125" customWidth="1"/>
@@ -2019,7 +2038,7 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.5703125" customWidth="1"/>
     <col min="2" max="2" width="119.28515625" customWidth="1"/>
@@ -2193,7 +2212,7 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="58" customWidth="1"/>
   </cols>
@@ -2247,13 +2266,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="59" customWidth="1"/>
@@ -2425,6 +2444,24 @@
         <v>51</v>
       </c>
     </row>
+    <row r="10" spans="1:6" ht="255" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
@@ -2435,9 +2472,10 @@
     <hyperlink ref="E7" r:id="rId6" xr:uid="{9A1DB91A-6547-4DA8-8EC0-B699AB3318C0}"/>
     <hyperlink ref="E8" r:id="rId7" display="https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/WMI-Collect/WMI-Collect.zip?raw=true" xr:uid="{25497EC0-956A-4C27-8920-6C36A5988903}"/>
     <hyperlink ref="E9" r:id="rId8" display="https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/WMI-Collect/WMI-Collect.zip?raw=true" xr:uid="{E30A40E0-D4AE-4049-BEBB-A967B83D0710}"/>
+    <hyperlink ref="E10" r:id="rId9" display="https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/WMI-Collect/WMI-Collect.zip?raw=true" xr:uid="{412BCE25-98C7-4B25-94EB-1AC9331687AF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -2449,7 +2487,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="65.140625" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4287BC3-6C02-4EC6-9973-1EB9D121436D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CA4909-8F0A-4813-AC58-3F7A227268C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -799,7 +799,7 @@
 https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/WinRM/WinRM-Diag.zip?raw=true</t>
   </si>
   <si>
-    <t>UXTrace is a uniformed tool to collect traces and logs in customer environment. You can collect all diagnostic traces below at the same time and flexibly. It allows to capture "Logman" traces (mostly for main UEX components) , WPR, Procmon, Netsh,TTD,Recorder</t>
+    <t>UXTrace is a powershell script to capture traces and collect data for troubleshooting. You can capture traces for UEX components like shell(explorer) and AppX. Also OS basic information and component data/settings can collect with this script.  WPR, ProcMon,IDNA traces can be captured as well.</t>
   </si>
 </sst>
 </file>

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CA4909-8F0A-4813-AC58-3F7A227268C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245936CF-9826-4C2B-A28C-342D1F6F680A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="7" r:id="rId1"/>
@@ -795,11 +795,10 @@
     <t xml:space="preserve">Ryutaro Hayashi </t>
   </si>
   <si>
-    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/UXTrace/UXTrace.ps1?raw=true
-https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/WinRM/WinRM-Diag.zip?raw=true</t>
-  </si>
-  <si>
     <t>UXTrace is a powershell script to capture traces and collect data for troubleshooting. You can capture traces for UEX components like shell(explorer) and AppX. Also OS basic information and component data/settings can collect with this script.  WPR, ProcMon,IDNA traces can be captured as well.</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/UXTrace/UXTrace.zip?raw=true</t>
   </si>
 </sst>
 </file>
@@ -945,8 +944,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1230,7 +1229,7 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
     <col min="2" max="2" width="100" customWidth="1"/>
@@ -1463,7 +1462,7 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="59.28515625" customWidth="1"/>
     <col min="2" max="2" width="91.28515625" style="5" customWidth="1"/>
@@ -1880,7 +1879,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64.5703125" customWidth="1"/>
@@ -2038,7 +2037,7 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.5703125" customWidth="1"/>
     <col min="2" max="2" width="119.28515625" customWidth="1"/>
@@ -2212,7 +2211,7 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="58" customWidth="1"/>
   </cols>
@@ -2269,14 +2268,14 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="59" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="69" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2444,19 +2443,19 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="255" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>185</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
         <v>186</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>51</v>
@@ -2472,7 +2471,7 @@
     <hyperlink ref="E7" r:id="rId6" xr:uid="{9A1DB91A-6547-4DA8-8EC0-B699AB3318C0}"/>
     <hyperlink ref="E8" r:id="rId7" display="https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/WMI-Collect/WMI-Collect.zip?raw=true" xr:uid="{25497EC0-956A-4C27-8920-6C36A5988903}"/>
     <hyperlink ref="E9" r:id="rId8" display="https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/WMI-Collect/WMI-Collect.zip?raw=true" xr:uid="{E30A40E0-D4AE-4049-BEBB-A967B83D0710}"/>
-    <hyperlink ref="E10" r:id="rId9" display="https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/WMI-Collect/WMI-Collect.zip?raw=true" xr:uid="{412BCE25-98C7-4B25-94EB-1AC9331687AF}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{412BCE25-98C7-4B25-94EB-1AC9331687AF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
@@ -2487,7 +2486,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="65.140625" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245936CF-9826-4C2B-A28C-342D1F6F680A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CD7205-69FC-4656-B366-E8B9F92C9D34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="192">
   <si>
     <t>Name</t>
   </si>
@@ -799,6 +799,15 @@
   </si>
   <si>
     <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/UXTrace/UXTrace.zip?raw=true</t>
+  </si>
+  <si>
+    <t>ADS_DatabaseAnalyzer_public</t>
+  </si>
+  <si>
+    <t>ADDS: JET: AD Database Analyzer identifies AD database object and attribute count and size. More Information: https://internal.support.services.microsoft.com/en-us/help/3086790</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/ADS/AD_Replfix/ADS_DatabaseAnalyzer_public.zip?raw=true</t>
   </si>
 </sst>
 </file>
@@ -1456,10 +1465,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1854,6 +1863,24 @@
         <v>51</v>
       </c>
     </row>
+    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -1865,9 +1892,10 @@
     <hyperlink ref="E16" r:id="rId7" xr:uid="{3B3A1A78-FE12-44AD-BC50-B9F31B170A4D}"/>
     <hyperlink ref="E17" r:id="rId8" xr:uid="{4E649777-4D45-4326-A92A-E9A481BFE847}"/>
     <hyperlink ref="E2" r:id="rId9" xr:uid="{2456CD6B-AEAB-4A1D-A2CF-C48240CAE1BC}"/>
+    <hyperlink ref="E18" r:id="rId10" xr:uid="{A8B1E5AE-D217-4BE5-8A99-6E56DA2C631F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -2267,7 +2295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -2371,7 +2399,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>159</v>
       </c>

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CD7205-69FC-4656-B366-E8B9F92C9D34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B706E1B5-2864-4F0B-8EBC-19209C78F5D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -807,7 +807,7 @@
     <t>ADDS: JET: AD Database Analyzer identifies AD database object and attribute count and size. More Information: https://internal.support.services.microsoft.com/en-us/help/3086790</t>
   </si>
   <si>
-    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/ADS/AD_Replfix/ADS_DatabaseAnalyzer_public.zip?raw=true</t>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/ADS/ADS_DatabaseAnalyzer_public/ADS_DatabaseAnalyzer_public.zip?raw=true</t>
   </si>
 </sst>
 </file>
@@ -1468,7 +1468,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B706E1B5-2864-4F0B-8EBC-19209C78F5D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED15AA91-DC7C-47BE-8683-EC9326B5AADB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="196">
   <si>
     <t>Name</t>
   </si>
@@ -808,6 +808,20 @@
   </si>
   <si>
     <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/ADS/ADS_DatabaseAnalyzer_public/ADS_DatabaseAnalyzer_public.zip?raw=true</t>
+  </si>
+  <si>
+    <t>Printing</t>
+  </si>
+  <si>
+    <t>Contains printing tools. Print-Collect will gather data to investigate a printing issue. Print-CollectA is a lighter version. Print-Trace will collect traces (ETL,Procmon,PSR, network trace). Print-Trace-local.bat will not capture network traces.</t>
+  </si>
+  <si>
+    <t>luct</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/Printing/Print-Collect.zip?raw=true
+https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/Printing/Print-CollectA.zip?raw=true
+https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/Printing/Print-Trace.zip?raw=true</t>
   </si>
 </sst>
 </file>
@@ -910,7 +924,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -951,10 +965,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1238,7 +1253,7 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
     <col min="2" max="2" width="100" customWidth="1"/>
@@ -1467,11 +1482,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+    <sheetView topLeftCell="C22" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="59.28515625" customWidth="1"/>
     <col min="2" max="2" width="91.28515625" style="5" customWidth="1"/>
@@ -1907,7 +1922,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64.5703125" customWidth="1"/>
@@ -2065,7 +2080,7 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.5703125" customWidth="1"/>
     <col min="2" max="2" width="119.28515625" customWidth="1"/>
@@ -2239,7 +2254,7 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="58" customWidth="1"/>
   </cols>
@@ -2293,13 +2308,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="59" customWidth="1"/>
@@ -2435,7 +2450,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>165</v>
       </c>
@@ -2488,6 +2503,26 @@
       <c r="F10" s="15" t="s">
         <v>51</v>
       </c>
+    </row>
+    <row r="11" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2500,9 +2535,10 @@
     <hyperlink ref="E8" r:id="rId7" display="https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/WMI-Collect/WMI-Collect.zip?raw=true" xr:uid="{25497EC0-956A-4C27-8920-6C36A5988903}"/>
     <hyperlink ref="E9" r:id="rId8" display="https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/WMI-Collect/WMI-Collect.zip?raw=true" xr:uid="{E30A40E0-D4AE-4049-BEBB-A967B83D0710}"/>
     <hyperlink ref="E10" r:id="rId9" xr:uid="{412BCE25-98C7-4B25-94EB-1AC9331687AF}"/>
+    <hyperlink ref="E11" r:id="rId10" display="https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/WMI-Collect/WMI-Collect.zip?raw=true" xr:uid="{A271FA40-3139-4A12-A942-63D5CDA85A29}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -2514,7 +2550,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="65.140625" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED15AA91-DC7C-47BE-8683-EC9326B5AADB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCDE176-B34C-4406-960C-8D9168F12AC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16275" yWindow="-16320" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="192">
   <si>
     <t>Name</t>
   </si>
@@ -808,20 +808,6 @@
   </si>
   <si>
     <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/ADS/ADS_DatabaseAnalyzer_public/ADS_DatabaseAnalyzer_public.zip?raw=true</t>
-  </si>
-  <si>
-    <t>Printing</t>
-  </si>
-  <si>
-    <t>Contains printing tools. Print-Collect will gather data to investigate a printing issue. Print-CollectA is a lighter version. Print-Trace will collect traces (ETL,Procmon,PSR, network trace). Print-Trace-local.bat will not capture network traces.</t>
-  </si>
-  <si>
-    <t>luct</t>
-  </si>
-  <si>
-    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/Printing/Print-Collect.zip?raw=true
-https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/Printing/Print-CollectA.zip?raw=true
-https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/Printing/Print-Trace.zip?raw=true</t>
   </si>
 </sst>
 </file>
@@ -2308,10 +2294,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2504,25 +2490,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E12" s="16"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2535,10 +2504,9 @@
     <hyperlink ref="E8" r:id="rId7" display="https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/WMI-Collect/WMI-Collect.zip?raw=true" xr:uid="{25497EC0-956A-4C27-8920-6C36A5988903}"/>
     <hyperlink ref="E9" r:id="rId8" display="https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/WMI-Collect/WMI-Collect.zip?raw=true" xr:uid="{E30A40E0-D4AE-4049-BEBB-A967B83D0710}"/>
     <hyperlink ref="E10" r:id="rId9" xr:uid="{412BCE25-98C7-4B25-94EB-1AC9331687AF}"/>
-    <hyperlink ref="E11" r:id="rId10" display="https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/WMI-Collect/WMI-Collect.zip?raw=true" xr:uid="{A271FA40-3139-4A12-A942-63D5CDA85A29}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId11"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
 </worksheet>
 </file>
 

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCDE176-B34C-4406-960C-8D9168F12AC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FD7616-725A-4003-ADF3-9B316972D256}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16275" yWindow="-16320" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12525" yWindow="-16350" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="196">
   <si>
     <t>Name</t>
   </si>
@@ -715,19 +715,11 @@
 WMI-Collect: PowerShell script that collects WMI relevant data</t>
   </si>
   <si>
-    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/WMI/WMI-Report.zip?raw=true
-https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/WMI/WMI-Collect.zip?raw=true</t>
-  </si>
-  <si>
     <t>WinRM</t>
   </si>
   <si>
     <t>WinRM-Collect: PowerShell script to simplify the collection of WinRM and EventLog Forwarding troubleshooting data and make our action plans easier.
 WinRM-Diag: PowerShell script that inspects the WinRM configuration and tries to identify common issues.</t>
-  </si>
-  <si>
-    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/WinRM/WinRM-Collect.zip?raw=true
-https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/WinRM/WinRM-Diag.zip?raw=true</t>
   </si>
   <si>
     <t>Perf-Collect</t>
@@ -808,6 +800,25 @@
   </si>
   <si>
     <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/ADS/ADS_DatabaseAnalyzer_public/ADS_DatabaseAnalyzer_public.zip?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/WMI/WMI.zip?raw=true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/WinRM/WinRM.zip?raw=true
+</t>
+  </si>
+  <si>
+    <t>Printing</t>
+  </si>
+  <si>
+    <t>Contains printing tools. Print-Collect will gather data to investigate a printing issue. Print-CollectA is a lighter version. Print-Trace will collect traces (ETL,Procmon,PSR, network trace). Print-Trace-local.bat will not capture network traces.</t>
+  </si>
+  <si>
+    <t>luct</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/Printing/Print.zip?raw=true</t>
   </si>
 </sst>
 </file>
@@ -910,7 +921,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -948,10 +959,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1431,17 +1441,17 @@
     </row>
     <row r="11" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>131</v>
@@ -1468,7 +1478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView topLeftCell="C22" workbookViewId="0">
+    <sheetView topLeftCell="C13" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -1529,7 +1539,7 @@
         <v>35</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>51</v>
@@ -1866,17 +1876,17 @@
     </row>
     <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="6" t="s">
         <v>96</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>52</v>
@@ -2021,7 +2031,7 @@
         <v>83</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>51</v>
@@ -2062,7 +2072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -2191,7 +2201,7 @@
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>155</v>
@@ -2202,17 +2212,17 @@
     </row>
     <row r="8" spans="1:6" ht="234.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>80</v>
@@ -2267,17 +2277,17 @@
     </row>
     <row r="2" spans="1:6" ht="255" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
         <v>117</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>51</v>
@@ -2294,17 +2304,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="59" customWidth="1"/>
-    <col min="5" max="5" width="69" customWidth="1"/>
+    <col min="5" max="5" width="95.5703125" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2418,7 +2428,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>162</v>
       </c>
@@ -2436,7 +2446,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>165</v>
       </c>
@@ -2448,50 +2458,71 @@
         <v>117</v>
       </c>
       <c r="E8" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="270" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
         <v>117</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>187</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E11" s="16"/>
+      <c r="F10" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2501,12 +2532,13 @@
     <hyperlink ref="E5" r:id="rId4" xr:uid="{C4372465-92F8-4B6D-B622-F870635B66EF}"/>
     <hyperlink ref="E6" r:id="rId5" xr:uid="{F8D3BCE4-9CF0-450A-9D11-402B8A0468F5}"/>
     <hyperlink ref="E7" r:id="rId6" xr:uid="{9A1DB91A-6547-4DA8-8EC0-B699AB3318C0}"/>
-    <hyperlink ref="E8" r:id="rId7" display="https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/WMI-Collect/WMI-Collect.zip?raw=true" xr:uid="{25497EC0-956A-4C27-8920-6C36A5988903}"/>
-    <hyperlink ref="E9" r:id="rId8" display="https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/WMI-Collect/WMI-Collect.zip?raw=true" xr:uid="{E30A40E0-D4AE-4049-BEBB-A967B83D0710}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{25497EC0-956A-4C27-8920-6C36A5988903}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{E30A40E0-D4AE-4049-BEBB-A967B83D0710}"/>
     <hyperlink ref="E10" r:id="rId9" xr:uid="{412BCE25-98C7-4B25-94EB-1AC9331687AF}"/>
+    <hyperlink ref="E11" r:id="rId10" xr:uid="{29ADC959-5972-420A-98DA-87D8B98AD639}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId11"/>
 </worksheet>
 </file>
 

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FD7616-725A-4003-ADF3-9B316972D256}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C18DFB-5972-42E1-AACE-785D416BE2A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12525" yWindow="-16350" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="7" r:id="rId1"/>
@@ -818,7 +818,7 @@
     <t>luct</t>
   </si>
   <si>
-    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/Printing/Print.zip?raw=true</t>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/Printing/Printing.zip?raw=true</t>
   </si>
 </sst>
 </file>
@@ -921,7 +921,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -956,16 +956,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1249,7 +1246,7 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
     <col min="2" max="2" width="100" customWidth="1"/>
@@ -1482,7 +1479,7 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="59.28515625" customWidth="1"/>
     <col min="2" max="2" width="91.28515625" style="5" customWidth="1"/>
@@ -1918,7 +1915,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64.5703125" customWidth="1"/>
@@ -2076,7 +2073,7 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.5703125" customWidth="1"/>
     <col min="2" max="2" width="119.28515625" customWidth="1"/>
@@ -2250,7 +2247,7 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="58" customWidth="1"/>
   </cols>
@@ -2304,13 +2301,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="59" customWidth="1"/>
@@ -2410,7 +2407,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>159</v>
       </c>
@@ -2501,7 +2498,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="6" t="s">
         <v>192</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2511,7 +2508,7 @@
       <c r="D11" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="11" t="s">
         <v>195</v>
       </c>
       <c r="F11" s="3" t="s">
@@ -2519,10 +2516,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E12" s="15"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E13" s="15"/>
+      <c r="E12" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2550,7 +2544,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="65.140625" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C18DFB-5972-42E1-AACE-785D416BE2A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A28543-5BA3-40C8-B2FB-C7DA87D34596}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -921,7 +921,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -955,9 +955,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2301,10 +2298,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2514,9 +2511,6 @@
       <c r="F11" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E12" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A28543-5BA3-40C8-B2FB-C7DA87D34596}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58D81AB-D38A-476C-9A58-7D444F140963}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2300,8 +2300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2458,19 +2458,19 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
-        <v>117</v>
+        <v>194</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>51</v>
@@ -2478,35 +2478,35 @@
     </row>
     <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E11" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>195</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>51</v>
@@ -2521,12 +2521,11 @@
     <hyperlink ref="E6" r:id="rId5" xr:uid="{F8D3BCE4-9CF0-450A-9D11-402B8A0468F5}"/>
     <hyperlink ref="E7" r:id="rId6" xr:uid="{9A1DB91A-6547-4DA8-8EC0-B699AB3318C0}"/>
     <hyperlink ref="E8" r:id="rId7" xr:uid="{25497EC0-956A-4C27-8920-6C36A5988903}"/>
-    <hyperlink ref="E9" r:id="rId8" xr:uid="{E30A40E0-D4AE-4049-BEBB-A967B83D0710}"/>
-    <hyperlink ref="E10" r:id="rId9" xr:uid="{412BCE25-98C7-4B25-94EB-1AC9331687AF}"/>
-    <hyperlink ref="E11" r:id="rId10" xr:uid="{29ADC959-5972-420A-98DA-87D8B98AD639}"/>
+    <hyperlink ref="E10" r:id="rId8" xr:uid="{E30A40E0-D4AE-4049-BEBB-A967B83D0710}"/>
+    <hyperlink ref="E11" r:id="rId9" xr:uid="{412BCE25-98C7-4B25-94EB-1AC9331687AF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId11"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
 </worksheet>
 </file>
 

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58D81AB-D38A-476C-9A58-7D444F140963}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D351E9FF-C186-418D-B869-1E9BAD533CEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12525" yWindow="-16350" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="200">
   <si>
     <t>Name</t>
   </si>
@@ -819,6 +819,18 @@
   </si>
   <si>
     <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/Printing/Printing.zip?raw=true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RepairAppx is a Microsoft Support troubleshooting tool used to identify and fix Modern Application issues. </t>
+  </si>
+  <si>
+    <t>Solution, Troubleshooting</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/RepairAppx/RepairAppx.zip?raw=true</t>
+  </si>
+  <si>
+    <t>Nicolas Dietrich</t>
   </si>
 </sst>
 </file>
@@ -958,8 +970,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1243,7 +1255,7 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
     <col min="2" max="2" width="100" customWidth="1"/>
@@ -1472,11 +1484,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView topLeftCell="C13" workbookViewId="0">
+    <sheetView topLeftCell="C16" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="59.28515625" customWidth="1"/>
     <col min="2" max="2" width="91.28515625" style="5" customWidth="1"/>
@@ -1908,11 +1920,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64.5703125" customWidth="1"/>
@@ -2066,11 +2078,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.5703125" customWidth="1"/>
     <col min="2" max="2" width="119.28515625" customWidth="1"/>
@@ -2244,7 +2256,7 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="58" customWidth="1"/>
   </cols>
@@ -2298,13 +2310,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="59" customWidth="1"/>
@@ -2510,6 +2522,24 @@
       </c>
       <c r="F11" s="3" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -2523,9 +2553,10 @@
     <hyperlink ref="E8" r:id="rId7" xr:uid="{25497EC0-956A-4C27-8920-6C36A5988903}"/>
     <hyperlink ref="E10" r:id="rId8" xr:uid="{E30A40E0-D4AE-4049-BEBB-A967B83D0710}"/>
     <hyperlink ref="E11" r:id="rId9" xr:uid="{412BCE25-98C7-4B25-94EB-1AC9331687AF}"/>
+    <hyperlink ref="E12" r:id="rId10" xr:uid="{FA3F5BED-FAAE-46BE-AB1F-D7ADED2F2EAA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -2537,7 +2568,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="65.140625" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D351E9FF-C186-418D-B869-1E9BAD533CEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1277685D-E2B7-4978-8F07-F7CAE81357EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12525" yWindow="-16350" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="201">
   <si>
     <t>Name</t>
   </si>
@@ -831,6 +831,9 @@
   </si>
   <si>
     <t>Nicolas Dietrich</t>
+  </si>
+  <si>
+    <t>RepairAppx</t>
   </si>
 </sst>
 </file>
@@ -2313,7 +2316,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2526,7 +2529,7 @@
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>196</v>

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1277685D-E2B7-4978-8F07-F7CAE81357EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEE8901-0C3B-4B45-AB35-E43CC1679319}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12525" yWindow="-16350" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="915" yWindow="735" windowWidth="24555" windowHeight="16650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="7" r:id="rId1"/>
@@ -768,72 +768,72 @@
     <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/SHA/ShaCollector/shacollector.zip?raw=true</t>
   </si>
   <si>
+    <t>UXTrace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryutaro Hayashi </t>
+  </si>
+  <si>
+    <t>UXTrace is a powershell script to capture traces and collect data for troubleshooting. You can capture traces for UEX components like shell(explorer) and AppX. Also OS basic information and component data/settings can collect with this script.  WPR, ProcMon,IDNA traces can be captured as well.</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/UXTrace/UXTrace.zip?raw=true</t>
+  </si>
+  <si>
+    <t>ADS_DatabaseAnalyzer_public</t>
+  </si>
+  <si>
+    <t>ADDS: JET: AD Database Analyzer identifies AD database object and attribute count and size. More Information: https://internal.support.services.microsoft.com/en-us/help/3086790</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/ADS/ADS_DatabaseAnalyzer_public/ADS_DatabaseAnalyzer_public.zip?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/WMI/WMI.zip?raw=true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/WinRM/WinRM.zip?raw=true
+</t>
+  </si>
+  <si>
+    <t>Printing</t>
+  </si>
+  <si>
+    <t>Contains printing tools. Print-Collect will gather data to investigate a printing issue. Print-CollectA is a lighter version. Print-Trace will collect traces (ETL,Procmon,PSR, network trace). Print-Trace-local.bat will not capture network traces.</t>
+  </si>
+  <si>
+    <t>luct</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/Printing/Printing.zip?raw=true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RepairAppx is a Microsoft Support troubleshooting tool used to identify and fix Modern Application issues. </t>
+  </si>
+  <si>
+    <t>Solution, Troubleshooting</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/RepairAppx/RepairAppx.zip?raw=true</t>
+  </si>
+  <si>
+    <t>Nicolas Dietrich</t>
+  </si>
+  <si>
+    <t>RepairAppx</t>
+  </si>
+  <si>
     <t>Purpose: 
 # SYNOPSIS shacollector
     Script Name: shacollector.bat
     Purpose:     collect support information logs related to SHA Area. 
-    Version:     5.3
+    Version:     5.6
     Last Update: 11th May 2020
     Author:      Koji Ishida
     Email-Alias: kojii
 ## DESCRIPTION
 shacollector is a tool that makes it easy to collect data for problem solving which is included in trace logs (ETW), 
 performance logs (perfmon or xperf), event logs and a lot of status information related to SHA area (Storage, Cluster and Hyper-V).</t>
-  </si>
-  <si>
-    <t>UXTrace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ryutaro Hayashi </t>
-  </si>
-  <si>
-    <t>UXTrace is a powershell script to capture traces and collect data for troubleshooting. You can capture traces for UEX components like shell(explorer) and AppX. Also OS basic information and component data/settings can collect with this script.  WPR, ProcMon,IDNA traces can be captured as well.</t>
-  </si>
-  <si>
-    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/UXTrace/UXTrace.zip?raw=true</t>
-  </si>
-  <si>
-    <t>ADS_DatabaseAnalyzer_public</t>
-  </si>
-  <si>
-    <t>ADDS: JET: AD Database Analyzer identifies AD database object and attribute count and size. More Information: https://internal.support.services.microsoft.com/en-us/help/3086790</t>
-  </si>
-  <si>
-    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/ADS/ADS_DatabaseAnalyzer_public/ADS_DatabaseAnalyzer_public.zip?raw=true</t>
-  </si>
-  <si>
-    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/WMI/WMI.zip?raw=true</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/WinRM/WinRM.zip?raw=true
-</t>
-  </si>
-  <si>
-    <t>Printing</t>
-  </si>
-  <si>
-    <t>Contains printing tools. Print-Collect will gather data to investigate a printing issue. Print-CollectA is a lighter version. Print-Trace will collect traces (ETL,Procmon,PSR, network trace). Print-Trace-local.bat will not capture network traces.</t>
-  </si>
-  <si>
-    <t>luct</t>
-  </si>
-  <si>
-    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/Printing/Printing.zip?raw=true</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RepairAppx is a Microsoft Support troubleshooting tool used to identify and fix Modern Application issues. </t>
-  </si>
-  <si>
-    <t>Solution, Troubleshooting</t>
-  </si>
-  <si>
-    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/RepairAppx/RepairAppx.zip?raw=true</t>
-  </si>
-  <si>
-    <t>Nicolas Dietrich</t>
-  </si>
-  <si>
-    <t>RepairAppx</t>
   </si>
 </sst>
 </file>
@@ -1885,17 +1885,17 @@
     </row>
     <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="6" t="s">
         <v>96</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>52</v>
@@ -2081,7 +2081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -2224,7 +2224,7 @@
         <v>178</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6" t="s">
@@ -2315,7 +2315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -2467,7 +2467,7 @@
         <v>117</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>51</v>
@@ -2475,17 +2475,17 @@
     </row>
     <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>193</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>194</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>195</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>51</v>
@@ -2503,7 +2503,7 @@
         <v>117</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>51</v>
@@ -2511,17 +2511,17 @@
     </row>
     <row r="11" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>51</v>
@@ -2529,20 +2529,20 @@
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEE8901-0C3B-4B45-AB35-E43CC1679319}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C891B1A-AAD1-4540-A864-9EED836A557A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="735" windowWidth="24555" windowHeight="16650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="300" windowWidth="28230" windowHeight="16650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="7" r:id="rId1"/>
@@ -762,9 +762,6 @@
     <t>josefh</t>
   </si>
   <si>
-    <t>kojii</t>
-  </si>
-  <si>
     <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/SHA/ShaCollector/shacollector.zip?raw=true</t>
   </si>
   <si>
@@ -827,13 +824,16 @@
 # SYNOPSIS shacollector
     Script Name: shacollector.bat
     Purpose:     collect support information logs related to SHA Area. 
-    Version:     5.6
-    Last Update: 11th May 2020
-    Author:      Koji Ishida
-    Email-Alias: kojii
+    Version:     6.0
+    Last Update: 25th Sep 2020
+    Author:      Shohei Sadashima / Konan Morimoto
+    Email-Alias: shsadash / t-konanm
 ## DESCRIPTION
 shacollector is a tool that makes it easy to collect data for problem solving which is included in trace logs (ETW), 
 performance logs (perfmon or xperf), event logs and a lot of status information related to SHA area (Storage, Cluster and Hyper-V).</t>
+  </si>
+  <si>
+    <t>shsadash</t>
   </si>
 </sst>
 </file>
@@ -1885,17 +1885,17 @@
     </row>
     <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="6" t="s">
         <v>96</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>52</v>
@@ -2082,7 +2082,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2224,14 +2224,14 @@
         <v>178</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>180</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>181</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>80</v>
@@ -2467,7 +2467,7 @@
         <v>117</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>51</v>
@@ -2475,17 +2475,17 @@
     </row>
     <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>193</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>194</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>51</v>
@@ -2503,7 +2503,7 @@
         <v>117</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>51</v>
@@ -2511,17 +2511,17 @@
     </row>
     <row r="11" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>51</v>
@@ -2529,20 +2529,20 @@
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C891B1A-AAD1-4540-A864-9EED836A557A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9ADA177-2EB1-4664-9EE5-7A634F37E5F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="300" windowWidth="28230" windowHeight="16650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="205">
   <si>
     <t>Name</t>
   </si>
@@ -834,6 +834,20 @@
   </si>
   <si>
     <t>shsadash</t>
+  </si>
+  <si>
+    <t>WVD-Collect</t>
+  </si>
+  <si>
+    <t>WVD-Collect is a PowerShell script that simplifies data collection for troubleshooting Windows Virtual Desktop issues and a convenient method for submitting and following quick &amp; easy action plans.
+The collected data can help especially with troubleshooting WVD deployment or configuration issues, session connectivity issues, profile issues (incl. FSLogix), Remote Assistance (MSRA) issues and Teams WVD optimization issues.
+The tool also performs some basic diagnostics for common WVD-related known issues, to further speed up troubleshooting.</t>
+  </si>
+  <si>
+    <t>Robert Klemencz</t>
+  </si>
+  <si>
+    <t>https://github.com/CSS-Windows/WindowsDiag/blob/master/UEX/WVD-Collect/WVD-Collect.zip?raw=true</t>
   </si>
 </sst>
 </file>
@@ -973,8 +987,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1258,7 +1272,7 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
     <col min="2" max="2" width="100" customWidth="1"/>
@@ -1491,7 +1505,7 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="59.28515625" customWidth="1"/>
     <col min="2" max="2" width="91.28515625" style="5" customWidth="1"/>
@@ -1927,7 +1941,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64.5703125" customWidth="1"/>
@@ -2081,11 +2095,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.5703125" customWidth="1"/>
     <col min="2" max="2" width="119.28515625" customWidth="1"/>
@@ -2259,7 +2273,7 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="58" customWidth="1"/>
   </cols>
@@ -2313,13 +2327,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="59" customWidth="1"/>
@@ -2527,21 +2541,39 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E13" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2555,11 +2587,12 @@
     <hyperlink ref="E7" r:id="rId6" xr:uid="{9A1DB91A-6547-4DA8-8EC0-B699AB3318C0}"/>
     <hyperlink ref="E8" r:id="rId7" xr:uid="{25497EC0-956A-4C27-8920-6C36A5988903}"/>
     <hyperlink ref="E10" r:id="rId8" xr:uid="{E30A40E0-D4AE-4049-BEBB-A967B83D0710}"/>
-    <hyperlink ref="E11" r:id="rId9" xr:uid="{412BCE25-98C7-4B25-94EB-1AC9331687AF}"/>
-    <hyperlink ref="E12" r:id="rId10" xr:uid="{FA3F5BED-FAAE-46BE-AB1F-D7ADED2F2EAA}"/>
+    <hyperlink ref="E12" r:id="rId9" xr:uid="{412BCE25-98C7-4B25-94EB-1AC9331687AF}"/>
+    <hyperlink ref="E13" r:id="rId10" xr:uid="{FA3F5BED-FAAE-46BE-AB1F-D7ADED2F2EAA}"/>
+    <hyperlink ref="E11" r:id="rId11" xr:uid="{49169A20-6D81-4BFA-A102-9F55C3B78A3A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId11"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>
 </worksheet>
 </file>
 
@@ -2571,7 +2604,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="65.140625" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
